--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43923</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43734</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43643</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43552</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43370</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43279</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43188</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43006</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42915</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42824</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1959300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1919900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2016100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1967800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1835300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1813700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1836900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1736100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1714600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1748200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1826100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1694100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1570000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1757300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1647600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1723200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1658300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1534600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1543100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1547200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1511000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1424200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1486600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1855200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1421000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1333200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F10" s="3">
         <v>272300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>292900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>309500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>270600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>289700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>225100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>290400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>261600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-29100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>273100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>236800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F12" s="3">
         <v>12600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>12100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>9100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>10800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>12100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1244800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1863600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1713800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1776600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1734800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1591700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1591200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1619300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1576600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1487700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1545900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1918200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1489700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1409100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>95700</v>
+      </c>
+      <c r="F18" s="3">
         <v>206100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>239500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>233000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>243600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>222500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>217600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>159500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>226900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>202300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-92100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>204400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>160900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-12300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>166500</v>
+      </c>
+      <c r="F21" s="3">
         <v>260100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>297600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>282500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>296700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>287800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>262300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>220400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>284600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>267000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>267600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>221800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F22" s="3">
         <v>23600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>23700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>18800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>19700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>24200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-248700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F23" s="3">
         <v>173000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>210900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>203200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>217700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>205700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>180500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>152300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>217900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>202900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-91800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>205600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>152500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F24" s="3">
         <v>41700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>42900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>40100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>45500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>36900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>35300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>66400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>55900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-35000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>64000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>44300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F26" s="3">
         <v>131300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>168000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>163100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>172200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>168800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>145200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>124800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>151500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>147000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-56800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>141600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>108200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>66900</v>
+      </c>
+      <c r="F27" s="3">
         <v>131300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>167900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>163000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>172500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>168700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>145100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>125300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>151500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>147100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-56800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>141600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>108200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="E29" s="3">
+        <v>400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>5400</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>5400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>-28700</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>-28700</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>9500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>12300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F33" s="3">
         <v>131300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>167900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>163000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>177900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>168700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>145100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>125300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>122800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>147100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-56800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>141600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>108200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F35" s="3">
         <v>131300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>167900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>163000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>177900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>168700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>145100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>125300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>122800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>147100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-56800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>141600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>108200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43923</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43734</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43643</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43552</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43370</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43279</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43188</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43006</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42915</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42824</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1833600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2350500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1477300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1301400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1228400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>773600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>683400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>593000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>437900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>423300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>726600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>696900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>672200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>697700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>889500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1074700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1287600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1209400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1175800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1014500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1198300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1181000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1205900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>722200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>851700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>824300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>818600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>660500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1168700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1015200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>970700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>991600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1012600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>931000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>900800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>929500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1449900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1363200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1325700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1473000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1515300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F45" s="3">
         <v>58600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>62400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>31600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>48600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>151200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>55700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>70500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>110900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>34300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>36900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4026100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4643000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3838700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3543900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3427400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2849300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2848400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2826000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2603700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2651100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3012000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2957800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2998100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2910400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F47" s="3">
         <v>9700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>10700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>25300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>54100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>53500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>55100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>55600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2320600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2249500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2212200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2235000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2167600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2123000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2102600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2105400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2105300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2018700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1991400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1986300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1991600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>109100</v>
       </c>
       <c r="E49" s="3">
         <v>3600</v>
       </c>
       <c r="F49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H49" s="3">
         <v>3700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4400</v>
       </c>
       <c r="N49" s="3">
         <v>4400</v>
       </c>
       <c r="O49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>554800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>624700</v>
+      </c>
+      <c r="F52" s="3">
         <v>600100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>574700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>606300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>611100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>653300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>624100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>601300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>502400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>497400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>504400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>476000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>494300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7001100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7606000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6701600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6345100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6297700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5685900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5682100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5611800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5370300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5267800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5537200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5462500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5469200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5405200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>740700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1140500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1116400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1072800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>902600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>882400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>837500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>819600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>693100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>762100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>726000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>691600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>579700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F58" s="3">
         <v>37600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>33300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>32400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>31400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>25000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>128100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>31200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>31100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>27900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>26700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>640700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>652200</v>
+      </c>
+      <c r="F59" s="3">
         <v>687600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>660400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>651100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>648100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>904800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>888500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>851100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>896800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1146000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1085100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>883200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>937800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1434100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1760700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1865700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1810100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1756300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1582100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1812200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1854100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1701900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1621000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1936000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1837700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1601600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1544200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2978200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2984100</v>
+      </c>
+      <c r="F61" s="3">
         <v>2132200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2113300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2214900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1864000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1869700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1858400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1112600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1119900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1060900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1060600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1063900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1060000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1132400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1099300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1086700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>953000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1005400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1001700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>883800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>944600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>982800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>725400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>780900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>752400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>818800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>872200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5545200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5844600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5085100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4876900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4977100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4448300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4566200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4657600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3797800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3466800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3778300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3651200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3484800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3476900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3036900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3201300</v>
+      </c>
+      <c r="F72" s="3">
         <v>3146200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3027300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2871900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2713200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2548700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2392500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2260000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2422400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2310900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2186800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2243700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2113900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1761400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1616500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1468200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1320600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1237600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1115900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>954200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1572500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1801000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1758900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1811300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1984400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1928300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43923</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43734</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43643</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43552</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43370</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43279</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43188</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43006</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42915</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42824</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F81" s="3">
         <v>131300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>167900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>163000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>177900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>168700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>145100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>125300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>122800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>147100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-56800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>141600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>108200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F83" s="3">
         <v>63500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>60500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>59300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>57900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>57000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>56800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>55100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>53700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>53000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>52500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>59500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>204100</v>
+      </c>
+      <c r="F89" s="3">
         <v>246900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>229500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>242200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>202500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>170200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>230600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>166600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-50900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>290600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>222300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>111700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>142500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-40900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-40800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-61500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-61200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-48200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-134400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-47500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-81200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-97200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-147300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-37100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-40700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-99700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-61100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-48000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-134500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-50400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-47300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-40600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-97200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>-12400</v>
       </c>
       <c r="E96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-12700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-12700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-12600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-12600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-11300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-11400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-11700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-12000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-12000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>770900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-118100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>249700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-118100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>82900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-105900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-121200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-213600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-154300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-91800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-19700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-516800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>873200</v>
+      </c>
+      <c r="F102" s="3">
         <v>175900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>73100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>450900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>90200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>252600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-306600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>28600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>23600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-20000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>27300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E7" s="2">
         <v>43923</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43734</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43552</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43370</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43279</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43188</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43006</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42915</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42824</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>644600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1077300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1959300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1919900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2016100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1967800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1835300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1813700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1836900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1736100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1714600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1748200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1826100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1694100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1570000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>925100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1112500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1757300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1647600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1723200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1658300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1534600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1543100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1547200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1511000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1424200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1486600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1855200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1421000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1333200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-280500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-35200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>202000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>272300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>292900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>309500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>270600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>289700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>290400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-29100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>273100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>236800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
         <v>12300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,38 +1024,41 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E14" s="3">
         <v>43100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-8400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1047,19 +1066,22 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>9100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1011600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1244800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1863600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1713800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1776600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1734800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1591700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1591200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1619300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1576600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1487700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1545900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1918200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1489700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1409100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-367000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-167500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>206100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>239500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>233000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>243600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>222500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>159500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>226900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>202300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-92100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>204400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>160900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-49000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-305300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-149200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>166500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>260100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>297600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>282500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>296700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>287800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>262300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>220400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>284600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>267000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>267600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>221800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E22" s="3">
         <v>32200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-248700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>173000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>210900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>203200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>217700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>205700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>180500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>152300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>217900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>202900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-91800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>205600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>152500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-167600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-87200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>41700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-35000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-254400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-161500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>131300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>168000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>163100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>172200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>168800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>124800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>151500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>147000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>141600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>108200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-162900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>131300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>167900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>163000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>172500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>168700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>125300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>151500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>141600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1752,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1715,11 +1775,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>5400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1727,11 +1787,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>49000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-162900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>131300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>167900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>163000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>177900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>168700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>147100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>141600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-162900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>131300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>167900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>163000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>177900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>168700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>147100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>141600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E38" s="2">
         <v>43923</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43734</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43552</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43370</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43279</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43188</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43006</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42915</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42824</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1833600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2350500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1477300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1301400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1228400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>773600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>683400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>593000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>437900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>423300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>726600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>696900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>672200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>697700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,316 +2329,337 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>627600</v>
+      </c>
+      <c r="E43" s="3">
         <v>889500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1074700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1287600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1209400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1175800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1014500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1198300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1181000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1205900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>722200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>851700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>824300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>818600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>660500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1168700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1118800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1015200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>970700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>991600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1012600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>931000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>929500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1449900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1363200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1325700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1473000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1515300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E45" s="3">
         <v>134300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>99000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>151200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4026100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4643000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3838700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3543900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3427400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2849300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2848400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2826000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2603700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2651100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3012000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2957800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2998100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2910400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E47" s="3">
         <v>10400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>4700</v>
       </c>
       <c r="N47" s="3">
         <v>4700</v>
       </c>
       <c r="O47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P47" s="3">
         <v>4500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>4400</v>
       </c>
       <c r="Q47" s="3">
         <v>4400</v>
       </c>
       <c r="R47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2226600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2320600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2249500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2212200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2235000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2167600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2123000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2102600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2105400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2105300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2018700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1991400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1986300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1991600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E49" s="3">
         <v>109100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3600</v>
       </c>
       <c r="F49" s="3">
         <v>3600</v>
@@ -2558,25 +2668,25 @@
         <v>3600</v>
       </c>
       <c r="H49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4300</v>
       </c>
       <c r="M49" s="3">
         <v>4300</v>
       </c>
       <c r="N49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="O49" s="3">
         <v>4400</v>
@@ -2585,13 +2695,16 @@
         <v>4400</v>
       </c>
       <c r="Q49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R49" s="3">
         <v>4500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>803200</v>
+      </c>
+      <c r="E52" s="3">
         <v>554800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>624700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>574700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>606300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>611100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>653300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>624100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>601300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>502400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>497400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>504400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>476000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>494300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7043300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7001100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7606000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6701600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6345100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6297700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5685900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5682100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5611800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5370300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5267800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5537200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5462500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5469200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5405200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E57" s="3">
         <v>740700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1058300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1140500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1116400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1072800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>902600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>882400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>837500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>819600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>693100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>762100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>726000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>691600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>579700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>352800</v>
+      </c>
+      <c r="E58" s="3">
         <v>52700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>31400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>128100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>575900</v>
+      </c>
+      <c r="E59" s="3">
         <v>640700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>652200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>687600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>660400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>651100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>648100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>904800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>888500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>851100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>896800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1146000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1085100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>883200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>937800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1440700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1434100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1760700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1865700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1810100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1756300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1582100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1812200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1854100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1701900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1621000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1936000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1837700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1601600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1544200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3050600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2978200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2984100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2132200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2113300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2214900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1864000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1869700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1858400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1112600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1119900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1060900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1060600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1063900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1060000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1132400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1099300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1086700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>953000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1005400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1001700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>883800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>944600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>982800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>725400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>780900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>752400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>818800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>872200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5774300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5545200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5844600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5085100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4876900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4977100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4448300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4566200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4657600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3797800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3466800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3778300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3651200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3484800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3476900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3036900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3201300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3146200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3027300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2871900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2713200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2548700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2392500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2260000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2422400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2310900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2186800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2243700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2113900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1455900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1761400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1616500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1468200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1320600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1237600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1115900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>954200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1572500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1801000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1758900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1811300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1984400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1928300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E80" s="2">
         <v>43923</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43734</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43552</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43370</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43279</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43188</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43006</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42915</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42824</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-162900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>131300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>167900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>163000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>177900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>168700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>147100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>141600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E83" s="3">
         <v>67300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>64700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>57900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-228400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-331300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>204100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>246900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>229500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>242200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>202500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>170200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>230600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>166600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>290600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>222300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>111700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>142500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-134400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-97200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-147300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-121200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-99700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-47300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4847,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-12700</v>
       </c>
       <c r="H96" s="3">
         <v>-12700</v>
       </c>
       <c r="I96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J96" s="3">
         <v>-12600</v>
       </c>
       <c r="K96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-12000</v>
       </c>
       <c r="P96" s="3">
         <v>-12000</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>770900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-118100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>249700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-118100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>82900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-105900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-213600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-154300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-516800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>873200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>175900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>73100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>450900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>90200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>252600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-306600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E7" s="2">
         <v>44014</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43923</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43734</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43552</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43370</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43279</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43188</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43006</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42915</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42824</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>806300</v>
+      </c>
+      <c r="E8" s="3">
         <v>644600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1077300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1959300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1919900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2016100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1967800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1835300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1813700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1836900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1736100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1714600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1748200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1826100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1694100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1570000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>903400</v>
+      </c>
+      <c r="E9" s="3">
         <v>925100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1112500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1757300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1647600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1723200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1658300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1534600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1543100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1547200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1511000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1424200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1486600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1855200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1421000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1333200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-280500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-35200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>202000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>272300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>292900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>289700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>225100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>290400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>273100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>236800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +933,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E12" s="3">
         <v>8300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,41 +1043,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E14" s="3">
         <v>6300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>43100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-8400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1069,19 +1088,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>9100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>983200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1011600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1244800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1863600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1713800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1776600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1734800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1591700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1591200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1619300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1576600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1487700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1545900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1918200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1489700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1409100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-367000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-167500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>206100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>239500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>233000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>243600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>222500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>159500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>226900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>202300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>204400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>160900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,273 +1310,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-305300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-149200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>166500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>260100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>297600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>282500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>296700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>287800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>262300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>220400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>284600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>267000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>221800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-239900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-422000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-248700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>173000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>210900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>203200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>217700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>205700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>180500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>152300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>217900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>202900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>205600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>152500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-167600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-87200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>44300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-254400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-161500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>168000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>163100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>172200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>168800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>124800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>151500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>141600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-255900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-162900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>66900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>131300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>167900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>163000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>172500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>168700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>125300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>151500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>141600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,11 +1826,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1778,11 +1838,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>5400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1790,11 +1850,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-255900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-162900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>131300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>167900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>163000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>177900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>168700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>147100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>141600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-255900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-162900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>131300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>167900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>163000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>177900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>168700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>147100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>141600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E38" s="2">
         <v>44014</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43923</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43734</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43552</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43370</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43279</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43188</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43006</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42915</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42824</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1441300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1947100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1833600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2350500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1477300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1301400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1228400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>773600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>683400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>593000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>437900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>423300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>726600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>696900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>672200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>697700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,337 +2421,358 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>722400</v>
+      </c>
+      <c r="E43" s="3">
         <v>627600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>889500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1074700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1287600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1209400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1175800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1014500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1198300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1181000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1205900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>722200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>851700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>824300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>818600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>660500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1183300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1225900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1168700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1118800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1015200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>970700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>991600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1012600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>931000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>929500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1449900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1363200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1325700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1473000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1515300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E45" s="3">
         <v>99600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>99000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>151200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3607900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3900200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4026100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4643000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3838700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3543900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3427400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2849300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2848400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2826000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2603700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2651100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3012000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2957800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2998100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2910400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
         <v>4900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>4700</v>
       </c>
       <c r="O47" s="3">
         <v>4700</v>
       </c>
       <c r="P47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>4400</v>
       </c>
       <c r="R47" s="3">
         <v>4400</v>
       </c>
       <c r="S47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2191800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2226600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2320600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2249500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2212200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2235000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2167600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2123000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2102600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2105400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2105300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2018700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1991400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1986300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1991600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E49" s="3">
         <v>108400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3600</v>
       </c>
       <c r="G49" s="3">
         <v>3600</v>
@@ -2671,25 +2781,25 @@
         <v>3600</v>
       </c>
       <c r="I49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J49" s="3">
         <v>3700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4300</v>
       </c>
       <c r="N49" s="3">
         <v>4300</v>
       </c>
       <c r="O49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="P49" s="3">
         <v>4400</v>
@@ -2698,13 +2808,16 @@
         <v>4400</v>
       </c>
       <c r="R49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S49" s="3">
         <v>4500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>692700</v>
+      </c>
+      <c r="E52" s="3">
         <v>803200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>554800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>624700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>574700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>606300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>611100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>653300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>624100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>601300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>502400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>497400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>504400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>476000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>494300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6604400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7043300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7001100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7606000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6701600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6345100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6297700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5685900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5682100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5611800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5370300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5267800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5537200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5462500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5469200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5405200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3139,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>483100</v>
+      </c>
+      <c r="E57" s="3">
         <v>512000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>740700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1058300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1140500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1116400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1072800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>902600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>882400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>837500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>819600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>693100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>762100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>726000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>691600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>579700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>335500</v>
+      </c>
+      <c r="E58" s="3">
         <v>352800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>37600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>128100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E59" s="3">
         <v>575900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>640700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>652200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>687600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>660400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>651100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>648100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>904800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>888500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>851100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>896800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1146000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1085100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>883200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>937800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1496300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1440700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1434100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1760700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1865700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1810100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1756300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1582100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1812200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1854100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1701900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1621000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1936000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1837700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1601600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1544200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2659000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3050600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2978200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2984100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2132200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2113300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2214900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1864000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1869700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1858400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1112600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1119900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1060900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1060600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1063900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1060000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1277100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1282500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1132400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1099300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1086700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>953000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1005400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1001700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>883800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>944600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>982800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>725400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>780900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>752400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>818800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>872200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5432900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5774300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5545200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5844600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5085100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4876900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4977100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4448300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4566200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4657600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3797800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3466800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3778300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3651200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3484800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3476900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2623500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2780000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3036900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3201300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3146200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3027300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2871900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2713200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2548700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2392500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2260000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2422400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2310900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2186800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2243700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2113900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1171500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1269000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1455900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1761400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1616500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1468200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1320600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1237600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1115900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>954200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1572500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1801000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1758900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1811300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1984400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1928300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E80" s="2">
         <v>44014</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43923</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43734</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43552</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43370</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43279</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43188</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43006</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42915</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42824</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-255900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-162900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>131300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>167900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>163000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>177900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>168700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>147100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>141600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E83" s="3">
         <v>68100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>64700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-228400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-331300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>204100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>246900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>229500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>242200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>202500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>170200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>230600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>166600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>290600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>222300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>142500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-134400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-81200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-97200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-147300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-121200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-37100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-99700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-134500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,52 +5090,55 @@
         <v>-1000</v>
       </c>
       <c r="E96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-12700</v>
       </c>
       <c r="I96" s="3">
         <v>-12700</v>
       </c>
       <c r="J96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="K96" s="3">
         <v>-12600</v>
       </c>
       <c r="L96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-11300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q96" s="3">
         <v>-12000</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-439100</v>
+      </c>
+      <c r="E100" s="3">
         <v>365500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>770900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-118100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>249700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-105900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-121200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-213600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-91800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>19400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="E102" s="3">
         <v>116500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-516800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>873200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>175900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>450900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>90200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>252600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-306600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,268 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44105</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44014</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43923</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43734</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43552</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43370</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43279</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43188</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43006</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42915</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42824</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>876600</v>
+      </c>
+      <c r="E8" s="3">
         <v>806300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>644600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1077300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1959300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1919900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2016100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1967800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1835300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1813700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1836900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1736100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1714600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1748200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1826100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1694100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1570000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>904500</v>
+      </c>
+      <c r="E9" s="3">
         <v>903400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>925100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1112500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1757300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1647600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1723200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1658300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1534600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1543100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1547200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1511000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1424200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1486600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1855200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1421000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1333200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-97100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-280500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-35200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>202000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>272300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>292900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>270600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>289700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>225100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>290400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-29100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>273100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>236800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,44 +1063,47 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E14" s="3">
         <v>19500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1091,19 +1111,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>9100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>982700</v>
+      </c>
+      <c r="E17" s="3">
         <v>983200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1011600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1244800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1863600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1713800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1776600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1734800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1591700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1591200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1619300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1576600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1487700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1545900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1918200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1489700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1409100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-176900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-367000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-167500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>206100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>239500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>233000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>222500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>159500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>226900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>202300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-92100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>160900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-119800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-305300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-149200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>166500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>260100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>297600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>282500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>296700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>287800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>262300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>220400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>284600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>267000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-28600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>267600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>221800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E22" s="3">
         <v>53000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-239900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-422000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-248700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>173000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>210900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>203200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>217700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>205700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>180500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>152300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>217900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>202900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-91800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>205600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>152500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-85200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-167600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-87200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-35000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>64000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-295100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-154700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-254400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-161500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>168000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>163100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>172200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>168800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>124800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>151500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>147000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-56800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>141600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>108200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-155500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-255900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-162900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>66900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>167900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>163000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>172500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>168700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>125300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>151500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>141600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>108200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,11 +1890,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
         <v>400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1841,11 +1902,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>5400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1853,11 +1914,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-155500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-255900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-162900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>167900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>163000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>168700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>125300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>147100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-56800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>141600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>108200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-155500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-255900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-162900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>167900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>163000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>168700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>125300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>147100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-56800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>141600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>108200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44105</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44014</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43923</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43734</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43552</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43370</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43279</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43188</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43006</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42915</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42824</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1441300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1947100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1833600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2350500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1477300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1301400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1228400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>773600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>683400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>593000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>437900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>423300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>726600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>696900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>672200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>697700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,358 +2514,379 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>852800</v>
+      </c>
+      <c r="E43" s="3">
         <v>722400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>627600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>889500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1074700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1287600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1209400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1175800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1014500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1198300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1181000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1205900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>722200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>851700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>824300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>818600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>660500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1422300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1183300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1225900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1168700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1118800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1015200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>970700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>991600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1012600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>931000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>929500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1449900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1363200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1325700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1473000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1515300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>336600</v>
+      </c>
+      <c r="E45" s="3">
         <v>260900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>99600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>99000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>151200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>110900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4485000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3607900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3900200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4026100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4643000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3838700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3543900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3427400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2849300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2848400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2826000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2603700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2651100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3012000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2957800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2998100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2910400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>4700</v>
       </c>
       <c r="P47" s="3">
         <v>4700</v>
       </c>
       <c r="Q47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R47" s="3">
         <v>4500</v>
-      </c>
-      <c r="R47" s="3">
-        <v>4400</v>
       </c>
       <c r="S47" s="3">
         <v>4400</v>
       </c>
       <c r="T47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2574400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2191800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2226600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2320600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2249500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2212200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2235000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2167600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2123000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2102600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2105400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2105300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2018700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1991400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1986300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1991600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>780500</v>
+      </c>
+      <c r="E49" s="3">
         <v>107900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>108400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3600</v>
       </c>
       <c r="H49" s="3">
         <v>3600</v>
@@ -2784,25 +2895,25 @@
         <v>3600</v>
       </c>
       <c r="J49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4300</v>
       </c>
       <c r="O49" s="3">
         <v>4300</v>
       </c>
       <c r="P49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Q49" s="3">
         <v>4400</v>
@@ -2811,13 +2922,16 @@
         <v>4400</v>
       </c>
       <c r="S49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T49" s="3">
         <v>4500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>536500</v>
+      </c>
+      <c r="E52" s="3">
         <v>692700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>803200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>554800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>624700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>574700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>606300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>611100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>653300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>624100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>601300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>502400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>497400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>504400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>476000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>494300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8383900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6604400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7043300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7001100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7606000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6701600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6345100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6297700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5685900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5682100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5611800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5370300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5267800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5537200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5462500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5469200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5405200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>558900</v>
+      </c>
+      <c r="E57" s="3">
         <v>483100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>512000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>740700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1058300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1140500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1116400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1072800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>902600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>882400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>837500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>819600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>693100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>762100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>726000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>691600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>579700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>340700</v>
+      </c>
+      <c r="E58" s="3">
         <v>335500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>352800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>128100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>809800</v>
+      </c>
+      <c r="E59" s="3">
         <v>677700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>575900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>640700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>652200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>687600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>660400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>651100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>648100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>904800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>888500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>851100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>896800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1146000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1085100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>883200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>937800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1709400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1496300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1440700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1434100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1760700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1865700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1810100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1756300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1582100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1812200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1854100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1701900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1621000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1936000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1837700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1601600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1544200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3532900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2659000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3050600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2978200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2984100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2132200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2113300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2214900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1864000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1869700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1858400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1112600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1119900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1060900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1060600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1063900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1060000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2284600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1277100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1282500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1132400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1099300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1086700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>953000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1005400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1001700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>883800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>944600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>982800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>725400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>780900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>752400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>818800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>872200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7527400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5432900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5774300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5545200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5844600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5085100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4876900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4977100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4448300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4566200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4657600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3797800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3466800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3778300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3651200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3484800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3476900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2326400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2623500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2780000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3036900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3201300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3146200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3027300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2871900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2713200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2548700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2392500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2260000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2422400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2310900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2186800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2243700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2113900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>856500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1171500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1269000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1455900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1761400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1616500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1468200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1320600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1237600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1115900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>954200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1572500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1801000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1758900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1811300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1984400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1928300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44105</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44014</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43923</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43734</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43552</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43370</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43279</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43188</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43006</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42915</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42824</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-155500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-255900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-162900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>167900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>163000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>168700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>125300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>147100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-56800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>141600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>108200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E83" s="3">
         <v>67100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>64700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>59500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-228400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-331300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>204100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>246900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>229500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>242200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>170200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>230600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>166600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-50900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>290600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>222300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>142500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-113400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-134400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-81200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-97200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-318600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-147300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-121200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-134500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5093,52 +5327,55 @@
         <v>-1000</v>
       </c>
       <c r="F96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-12400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-12700</v>
       </c>
       <c r="J96" s="3">
         <v>-12700</v>
       </c>
       <c r="K96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="L96" s="3">
         <v>-12600</v>
       </c>
       <c r="M96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-12000</v>
       </c>
       <c r="R96" s="3">
         <v>-12000</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>875100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-439100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>365500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>770900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-118100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>249700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-213600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-91800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>19400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-504800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>116500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-516800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>873200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>175900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>450900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>252600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-306600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44105</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44014</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43923</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43734</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43552</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43370</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43279</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43188</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43006</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42915</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42824</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900800</v>
+      </c>
+      <c r="E8" s="3">
         <v>876600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>806300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>644600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1077300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1959300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1919900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2016100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1967800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1835300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1813700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1836900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1736100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1714600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1748200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1826100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1694100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1570000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>958800</v>
+      </c>
+      <c r="E9" s="3">
         <v>904500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>903400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>925100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1112500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1757300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1647600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1723200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1658300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1534600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1543100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1547200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1511000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1424200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1486600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1855200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1421000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1333200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-27900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-97100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-280500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-35200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>202000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>272300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>292900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>309500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>270600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>289700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>290400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-29100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>273100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>236800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E12" s="3">
         <v>10700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,47 +1083,50 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="3">
         <v>40300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1114,42 +1134,45 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>9100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="E17" s="3">
         <v>982700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>983200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1011600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1244800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1863600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1713800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1776600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1734800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1591700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1591200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1619300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1576600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1487700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1545900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1918200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1489700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1409100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-106100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-176900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-367000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-167500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>206100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>239500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>233000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>243600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>222500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>159500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>226900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>202300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-92100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>204400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>160900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-119800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-305300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-149200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>166500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>260100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>297600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>282500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>296700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>287800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>262300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>220400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>284600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-28600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>267600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>221800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E22" s="3">
         <v>61500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-172900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-175300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-239900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-422000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-248700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>76000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>173000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>210900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>217700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>205700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>180500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>152300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>217900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>202900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-91800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>205600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>152500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>119800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-85200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-167600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-87200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-35000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>64000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-295100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-154700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-254400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-161500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>131300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>168000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>172200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>168800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>151500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>147000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-56800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>141600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>108200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-295900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-155500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-255900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-162900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>66900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>131300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>167900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>172500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>168700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>125300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>151500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>147100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>141600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>108200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1893,11 +1954,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>400</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1905,11 +1966,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>5400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1917,11 +1978,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E32" s="3">
         <v>7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-295900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-155500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-255900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-162900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>131300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>167900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>177900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>168700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>125300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>122800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>147100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-56800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>141600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>108200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-295900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-155500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-255900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-162900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>131300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>167900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>177900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>168700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>125300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>122800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>147100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-56800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>141600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>108200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44105</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44014</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43923</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43734</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43552</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43370</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43279</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43188</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43006</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42915</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42824</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1359300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1873300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1441300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1947100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1833600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2350500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1477300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1301400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1228400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>773600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>683400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>593000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>423300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>726600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>696900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>672200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>697700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,379 +2607,400 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>887700</v>
+      </c>
+      <c r="E43" s="3">
         <v>852800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>722400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>627600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>889500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1074700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1287600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1209400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1175800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1014500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1198300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1181000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1205900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>722200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>851700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>824300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>818600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>660500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1395800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1422300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1183300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1225900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1168700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1118800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1015200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>970700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>991600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1012600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>931000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>929500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1449900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1363200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1325700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1473000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1515300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>344800</v>
+      </c>
+      <c r="E45" s="3">
         <v>336600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>260900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>99600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>99000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>151200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>110900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3987600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4485000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3607900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4026100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4643000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3838700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3543900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3427400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2849300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2848400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2826000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2603700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2651100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3012000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2957800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2998100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2910400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>7500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>4700</v>
       </c>
       <c r="Q47" s="3">
         <v>4700</v>
       </c>
       <c r="R47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S47" s="3">
         <v>4500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>4400</v>
       </c>
       <c r="T47" s="3">
         <v>4400</v>
       </c>
       <c r="U47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2574400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2191800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2226600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2320600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2249500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2212200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2235000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2167600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2123000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2102600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2105400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2105300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2018700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1991400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1986300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1991600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>790900</v>
+      </c>
+      <c r="E49" s="3">
         <v>780500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>107900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>108400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>109100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3600</v>
       </c>
       <c r="I49" s="3">
         <v>3600</v>
@@ -2898,25 +3009,25 @@
         <v>3600</v>
       </c>
       <c r="K49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4300</v>
       </c>
       <c r="P49" s="3">
         <v>4300</v>
       </c>
       <c r="Q49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="R49" s="3">
         <v>4400</v>
@@ -2925,13 +3036,16 @@
         <v>4400</v>
       </c>
       <c r="T49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U49" s="3">
         <v>4500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>556400</v>
+      </c>
+      <c r="E52" s="3">
         <v>536500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>692700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>803200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>554800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>624700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>574700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>606300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>611100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>653300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>624100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>601300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>502400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>497400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>504400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>476000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>494300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7867800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8383900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6604400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7043300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7001100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7606000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6701600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6345100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6297700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5685900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5682100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5611800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5370300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5267800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5537200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5462500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5469200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5405200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3401,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>540800</v>
+      </c>
+      <c r="E57" s="3">
         <v>558900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>483100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>512000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>740700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1058300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1140500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1116400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1072800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>902600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>882400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>837500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>819600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>693100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>762100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>726000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>691600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>579700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E58" s="3">
         <v>340700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>335500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>352800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>50200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>128100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E59" s="3">
         <v>809800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>677700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>575900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>640700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>652200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>687600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>660400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>651100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>648100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>904800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>888500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>851100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>896800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1146000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1085100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>883200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>937800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1709400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1496300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1440700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1434100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1760700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1865700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1810100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1756300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1582100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1812200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1854100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1701900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1621000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1936000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1837700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1601600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1544200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3525200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3532900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2659000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3050600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2978200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2984100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2132200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2113300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2214900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1864000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1869700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1858400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1112600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1119900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1060900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1060600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1063900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1060000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2161600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2284600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1277100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1282500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1132400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1099300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1086700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>953000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1005400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1001700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>883800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>944600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>982800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>725400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>780900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>752400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>818800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>872200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7175300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7527400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5432900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5774300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5545200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5844600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5085100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4876900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4977100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4448300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4566200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4657600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3797800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3466800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3778300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3651200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3484800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3476900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2153700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2326400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2623500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2780000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3036900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3201300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3146200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3027300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2871900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2713200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2548700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2392500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2260000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2422400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2310900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2186800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2243700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2113900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>692500</v>
+      </c>
+      <c r="E76" s="3">
         <v>856500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1171500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1269000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1455900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1761400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1616500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1468200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1320600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1237600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1115900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>954200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1572500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1801000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1758900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1811300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1984400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1928300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44105</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44014</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43923</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43734</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43552</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43370</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43279</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43188</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43006</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42915</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42824</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-295900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-155500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-255900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-162900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>131300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>167900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>177900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>168700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>125300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>122800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>147100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-56800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>141600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>108200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E83" s="3">
         <v>75100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>64700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>59500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-132100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-228400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-331300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>204100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>246900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>229500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>242200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>202500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>170200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>230600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>166600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>290600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>222300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>111700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>142500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-113400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-81200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-97200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-318600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-147300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-121200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-47300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,13 +5548,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E96" s="3">
         <v>-1000</v>
@@ -5330,52 +5564,55 @@
         <v>-1000</v>
       </c>
       <c r="G96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-12400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-12700</v>
       </c>
       <c r="K96" s="3">
         <v>-12700</v>
       </c>
       <c r="L96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="M96" s="3">
         <v>-12600</v>
       </c>
       <c r="N96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-11300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-12000</v>
       </c>
       <c r="S96" s="3">
         <v>-12000</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-316400</v>
+      </c>
+      <c r="E100" s="3">
         <v>875100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-439100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>365500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>770900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-118100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>249700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-118100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>82900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-105900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-213600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-91800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>19400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="E102" s="3">
         <v>431000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-504800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>116500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-516800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>873200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>175900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>450900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>90200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>252600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-306600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E7" s="2">
         <v>44287</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44105</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44014</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43923</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43734</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43552</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43370</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43279</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43188</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43006</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42915</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42824</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1002100</v>
+      </c>
+      <c r="E8" s="3">
         <v>900800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>876600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>806300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>644600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1077300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1959300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1919900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2016100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1967800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1835300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1813700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1836900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1736100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1714600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1748200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1826100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1694100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1570000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>958800</v>
+        <v>1012000</v>
       </c>
       <c r="E9" s="3">
-        <v>904500</v>
+        <v>956700</v>
       </c>
       <c r="F9" s="3">
-        <v>903400</v>
+        <v>904600</v>
       </c>
       <c r="G9" s="3">
-        <v>925100</v>
+        <v>914300</v>
       </c>
       <c r="H9" s="3">
-        <v>1112500</v>
+        <v>905800</v>
       </c>
       <c r="I9" s="3">
+        <v>1087100</v>
+      </c>
+      <c r="J9" s="3">
         <v>1757300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1647600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1723200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1658300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1534600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1543100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1547200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1511000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1424200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1486600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1855200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1421000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1333200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-58000</v>
+        <v>-9900</v>
       </c>
       <c r="E10" s="3">
-        <v>-27900</v>
+        <v>-55900</v>
       </c>
       <c r="F10" s="3">
-        <v>-97100</v>
+        <v>-28000</v>
       </c>
       <c r="G10" s="3">
-        <v>-280500</v>
+        <v>-108000</v>
       </c>
       <c r="H10" s="3">
-        <v>-35200</v>
+        <v>-261200</v>
       </c>
       <c r="I10" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J10" s="3">
         <v>202000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>272300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>292900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>270600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>289700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>225100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>290400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-29100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>273100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>236800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +974,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E12" s="3">
         <v>8200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,50 +1102,53 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
-        <v>40300</v>
-      </c>
       <c r="F14" s="3">
-        <v>19500</v>
+        <v>40200</v>
       </c>
       <c r="G14" s="3">
-        <v>6300</v>
+        <v>8600</v>
       </c>
       <c r="H14" s="3">
-        <v>43100</v>
+        <v>25600</v>
       </c>
       <c r="I14" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J14" s="3">
         <v>23900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-8400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1137,27 +1156,30 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>9100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
         <v>2300</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1174,8 +1196,8 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1210,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1099800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1030000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>982700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>983200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1011600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1244800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1863600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1713800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1776600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1734800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1591700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1591200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1619300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1576600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1487700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1545900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1918200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1489700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1409100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-129200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-106100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-176900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-367000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-167500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>206100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>239500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>233000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>243600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>222500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>159500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>226900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>202300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-92100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>204400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>160900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,318 +1411,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E20" s="3">
         <v>16100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-38700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-119800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-305300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-149200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>166500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>260100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>297600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>282500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>287800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>262300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>220400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>284600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>267000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-28600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>267600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>221800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E22" s="3">
         <v>59800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>61500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-172900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-175300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-239900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-422000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-248700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>173000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>210900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>203200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>217700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>205700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>180500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>152300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>217900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>202900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-91800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>205600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>152500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>119800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-85200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-167600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-87200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-35000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-171200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-295100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-154700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-254400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-161500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>168000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>172200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>168800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>151500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>147000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-56800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>141600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>108200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-171600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-295900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-155500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-255900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-162900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>66900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>131300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>167900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>172500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>168700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>125300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>151500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>147100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>141600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,11 +2017,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1969,11 +2029,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>5400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1981,11 +2041,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2189,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-171600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-295900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-155500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-255900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-162900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>131300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>167900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>177900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>168700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>125300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>147100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>141600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-171600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-295900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-155500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-255900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-162900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>131300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>167900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>177900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>168700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>125300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>147100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>141600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E38" s="2">
         <v>44287</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44105</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44014</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43923</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43734</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43552</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43370</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43279</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43188</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43006</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42915</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42824</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1269300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1359300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1873300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1441300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1947100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1833600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2350500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1477300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1301400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1228400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>773600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>683400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>593000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>437900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>423300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>726600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>696900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>672200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>697700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,400 +2699,421 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E43" s="3">
         <v>887700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>852800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>722400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>627600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>889500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1074700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1287600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1209400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1175800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1014500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1198300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1181000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1205900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>722200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>851700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>824300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>818600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>660500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1305400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1395800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1422300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1183300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1225900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1168700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1118800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1015200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>970700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>991600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1012600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>931000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>929500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1449900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1363200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1325700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1473000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1515300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>342200</v>
+      </c>
+      <c r="E45" s="3">
         <v>344800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>336600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>260900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>99600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>99000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>151200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>110900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3791900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3987600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4485000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3607900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4026100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4643000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3838700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3543900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3427400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2849300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2848400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2826000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2603700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2651100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3012000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2957800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2998100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2910400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>4700</v>
       </c>
       <c r="R47" s="3">
         <v>4700</v>
       </c>
       <c r="S47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T47" s="3">
         <v>4500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>4400</v>
       </c>
       <c r="U47" s="3">
         <v>4400</v>
       </c>
       <c r="V47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2530300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2527000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2574400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2191800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2226600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2320600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2249500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2212200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2235000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2167600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2123000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2102600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2105400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2105300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2018700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1991400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1986300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1991600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>833900</v>
+      </c>
+      <c r="E49" s="3">
         <v>790900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>780500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>107900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>108400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>109100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3600</v>
       </c>
       <c r="J49" s="3">
         <v>3600</v>
@@ -3012,25 +3122,25 @@
         <v>3600</v>
       </c>
       <c r="L49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4300</v>
       </c>
       <c r="Q49" s="3">
         <v>4300</v>
       </c>
       <c r="R49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="S49" s="3">
         <v>4400</v>
@@ -3039,13 +3149,16 @@
         <v>4400</v>
       </c>
       <c r="U49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V49" s="3">
         <v>4500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E52" s="3">
         <v>556400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>536500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>692700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>803200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>554800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>624700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>574700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>606300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>611100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>653300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>624100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>601300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>502400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>497400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>504400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>476000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>494300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7741100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7867800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8383900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6604400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7043300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7001100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7606000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6701600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6345100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6297700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5685900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5682100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5611800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5370300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5267800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5537200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5462500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5469200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5405200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,380 +3531,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>607100</v>
+      </c>
+      <c r="E57" s="3">
         <v>540800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>483100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>512000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>740700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1058300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1140500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1116400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1072800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>902600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>882400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>837500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>819600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>693100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>762100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>726000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>691600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>579700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E58" s="3">
         <v>40200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>340700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>335500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>352800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>37600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>128100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>26700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>876400</v>
+      </c>
+      <c r="E59" s="3">
         <v>907000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>809800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>677700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>575900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>640700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>652200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>687600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>660400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>651100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>648100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>904800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>888500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>851100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>896800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1146000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1085100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>883200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>937800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1531400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1488000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1709400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1496300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1440700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1434100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1760700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1865700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1810100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1756300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1582100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1812200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1854100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1701900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1621000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1936000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1837700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1601600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1544200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3552700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3525200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3532900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2659000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3050600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2978200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2984100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2132200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2113300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2214900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1864000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1869700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1858400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1112600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1119900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1060900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1060600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1063900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1060000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2096700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2161600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2284600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1277100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1282500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1132400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1099300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1086700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>953000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1005400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1001700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>883800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>944600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>982800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>725400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>780900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>752400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>818800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>872200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7181300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7175300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7527400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5432900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5774300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5545200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5844600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5085100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4876900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4977100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4448300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4566200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4657600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3797800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3466800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3778300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3651200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3484800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3476900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2017400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2153700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2326400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2623500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2780000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3036900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3201300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3146200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3027300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2871900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2713200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2548700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2392500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2260000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2422400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2310900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2186800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2243700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2113900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E76" s="3">
         <v>692500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>856500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1171500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1269000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1455900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1761400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1616500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1468200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1320600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1237600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1115900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>954200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1572500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1801000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1758900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1811300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1984400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1928300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44378</v>
+      </c>
+      <c r="E80" s="2">
         <v>44287</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44105</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44014</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43923</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43734</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43552</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43370</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43279</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43188</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43006</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42915</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42824</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-171600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-295900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-155500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-255900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-162900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>131300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>167900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>177900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>168700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>125300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>147100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>141600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5016,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>80300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>59500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-170200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-132100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-228400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-331300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>204100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>246900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>229500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>242200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>202500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>170200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>230600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>166600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-50900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>290600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>222300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>111700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>142500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-113400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-134400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-50600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-81200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-97200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-318600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-147300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-121200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-134500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5558,7 +5791,7 @@
         <v>-1100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
         <v>-1000</v>
@@ -5567,52 +5800,55 @@
         <v>-1000</v>
       </c>
       <c r="H96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-12400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12700</v>
       </c>
       <c r="L96" s="3">
         <v>-12700</v>
       </c>
       <c r="M96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="N96" s="3">
         <v>-12600</v>
       </c>
       <c r="O96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-11300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-12000</v>
       </c>
       <c r="T96" s="3">
         <v>-12000</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-316400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>875100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-439100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>365500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>770900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>249700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-118100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>82900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-121200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-213600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-154300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-91800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>19400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-514000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>431000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-504800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>116500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-516800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>873200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>175900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>450900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>90200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>252600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-306600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>27300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,306 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44378</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44287</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44105</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44014</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43923</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43734</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43552</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43370</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43279</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43188</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43006</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42915</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42824</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>980000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1002100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>876600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>806300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>644600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1077300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1959300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1919900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2016100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1967800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1835300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1813700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1836900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1736100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1714600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1748200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1826100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1694100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1570000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1033600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1012000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>956700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>904600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>914300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>905800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1087100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1757300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1647600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1723200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1658300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1534600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1543100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1547200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1511000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1424200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1486600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1855200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1421000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1333200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-9900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-55900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-28000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-108000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-261200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-9800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>202000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>272300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>292900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>270600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>289700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>225100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>290400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>261600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-29100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>273100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>236800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E12" s="3">
         <v>13300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,53 +1122,56 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>8800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>68500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-8400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1159,30 +1179,33 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>9100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12100</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1199,8 +1222,8 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1136600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1099800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1030000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>982700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>983200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1011600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1244800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1863600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1713800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1776600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1734800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1591700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1591200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1619300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1576600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1487700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1545900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1918200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1489700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1409100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-97700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-129200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-106100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-176900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-367000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-167500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>206100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>239500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>233000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>243600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>222500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>217600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>159500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>226900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>202300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-92100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>204400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>160900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,333 +1445,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E20" s="3">
         <v>31100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-49000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E21" s="3">
         <v>13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-119800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-305300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-149200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>166500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>260100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>297600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>282500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>296700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>287800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>262300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>220400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>284600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>267000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-28600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>267600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>221800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E22" s="3">
         <v>59100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>61500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>53000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-125700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-172900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-175300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-239900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-422000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-248700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>173000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>210900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>203200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>217700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>205700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>180500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>152300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>217900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>202900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-91800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>205600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>152500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>119800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-85200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-167600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-87200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-35000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>44300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-134700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-171200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-295100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-154700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-254400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-161500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>168000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>172200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>168800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>151500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>147000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-56800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>141600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>108200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-135300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-171600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-295900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-155500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-255900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-162900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>66900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>167900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>172500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>168700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>125300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>151500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>147100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-56800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>141600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>108200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,11 +2081,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2032,11 +2093,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>5400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2044,11 +2105,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>49000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-135300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-171600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-295900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-155500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-255900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-162900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>167900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>177900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>168700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>145100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>125300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>122800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>147100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-56800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>141600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>108200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-135300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-171600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-295900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-155500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-255900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-162900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>167900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>177900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>168700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>145100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>125300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>122800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>147100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-56800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>141600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>108200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44378</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44287</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44105</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44014</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43923</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43734</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43552</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43370</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43279</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43188</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43006</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42915</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42824</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1430600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1269300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1359300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1873300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1441300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1947100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1833600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2350500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1477300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1301400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1228400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>773600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>683400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>593000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>437900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>423300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>726600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>696900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>672200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>697700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,421 +2792,442 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>938600</v>
+      </c>
+      <c r="E43" s="3">
         <v>875000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>887700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>852800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>722400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>627600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>889500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1074700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1287600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1209400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1175800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1014500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1198300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1205900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>722200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>851700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>824300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>818600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>660500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1325700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1305400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1395800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1422300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1183300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1225900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1168700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1118800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1015200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>970700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>991600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1012600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>931000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>929500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1449900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1363200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1325700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1473000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1515300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E45" s="3">
         <v>342200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>344800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>336600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>260900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>99600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>134300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>99000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>58600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>151200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>55700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>110900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3816300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3791900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3987600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4485000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3607900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4026100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4643000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3838700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3543900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3427400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2849300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2848400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2826000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2603700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2651100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3012000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2957800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2998100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2910400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>4700</v>
       </c>
       <c r="S47" s="3">
         <v>4700</v>
       </c>
       <c r="T47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U47" s="3">
         <v>4500</v>
-      </c>
-      <c r="U47" s="3">
-        <v>4400</v>
       </c>
       <c r="V47" s="3">
         <v>4400</v>
       </c>
       <c r="W47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2494100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2530300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2527000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2574400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2191800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2226600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2320600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2249500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2212200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2235000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2167600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2123000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2102600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2105400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2105300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2018700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1991400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1986300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1991600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>839800</v>
+      </c>
+      <c r="E49" s="3">
         <v>833900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>790900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>780500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>107900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>108400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>109100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3600</v>
       </c>
       <c r="K49" s="3">
         <v>3600</v>
@@ -3125,25 +3236,25 @@
         <v>3600</v>
       </c>
       <c r="M49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>4300</v>
       </c>
       <c r="R49" s="3">
         <v>4300</v>
       </c>
       <c r="S49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="T49" s="3">
         <v>4400</v>
@@ -3152,13 +3263,16 @@
         <v>4400</v>
       </c>
       <c r="V49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W49" s="3">
         <v>4500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>588900</v>
+      </c>
+      <c r="E52" s="3">
         <v>585000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>556400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>536500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>692700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>803200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>554800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>624700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>574700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>606300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>611100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>653300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>624100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>601300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>502400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>497400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>504400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>476000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>494300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7740800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7741100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7867800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8383900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6604400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7043300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7001100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7606000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6701600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6345100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6297700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5685900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5682100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5611800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5370300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5267800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5537200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5462500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5469200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5405200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>644800</v>
+      </c>
+      <c r="E57" s="3">
         <v>607100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>540800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>558900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>483100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>512000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>740700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1058300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1140500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1116400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1072800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>902600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>882400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>837500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>819600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>693100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>762100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>726000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>691600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>579700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E58" s="3">
         <v>47900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>40200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>340700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>335500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>352800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>52700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>128100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>26800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1157900</v>
+      </c>
+      <c r="E59" s="3">
         <v>876400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>907000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>809800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>677700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>575900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>640700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>652200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>687600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>660400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>651100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>648100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>904800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>888500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>851100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>896800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1146000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1085100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>883200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>937800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1850500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1531400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1488000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1709400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1496300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1440700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1434100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1760700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1865700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1810100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1756300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1582100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1812200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1854100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1701900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1621000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1936000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1837700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1601600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1544200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3546700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3552700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3525200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3532900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2659000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3050600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2978200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2984100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2132200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2113300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2214900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1864000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1869700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1858400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1112600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1119900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1060900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1060600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1063900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1060000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1918800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2096700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2161600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2284600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1277100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1282500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1132400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1099300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1086700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>953000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1005400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1001700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>883800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>944600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>982800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>725400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>780900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>752400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>818800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>872200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7316500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7181300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7175300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7527400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5432900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5774300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5545200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5844600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5085100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4876900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4977100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4448300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4566200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4657600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3797800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3466800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3778300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3651200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3484800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3476900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1902800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2017400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2153700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2326400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2623500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2780000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3036900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3201300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3146200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3027300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2871900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2713200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2548700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2392500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2260000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2422400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2310900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2186800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2243700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2113900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>424300</v>
+      </c>
+      <c r="E76" s="3">
         <v>559800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>692500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>856500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1171500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1269000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1455900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1761400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1616500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1468200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1320600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1237600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1115900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>954200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1572500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1801000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1758900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1811300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1984400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1928300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44378</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44287</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44105</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44014</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43923</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43734</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43552</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43370</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43279</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43188</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43006</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42915</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42824</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-135300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-171600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-295900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-155500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-255900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-162900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>167900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>177900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>168700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>145100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>125300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>122800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>147100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-56800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>141600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>108200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>59500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-170200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-132100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-228400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-331300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>204100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>246900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>229500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>242200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>202500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>170200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>230600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>166600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-50900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>290600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>222300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>111700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>142500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-113400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-134400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-81200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-97200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-318600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-147300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-121200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-134500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-47300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-97200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,19 +6015,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E96" s="3">
         <v>-1100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G96" s="3">
         <v>-1000</v>
@@ -5803,52 +6037,55 @@
         <v>-1000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-12400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-12700</v>
       </c>
       <c r="M96" s="3">
         <v>-12700</v>
       </c>
       <c r="N96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="O96" s="3">
         <v>-12600</v>
       </c>
       <c r="P96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-12000</v>
       </c>
       <c r="U96" s="3">
         <v>-12000</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-316400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>875100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-439100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>365500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>770900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>249700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-118100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>82900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-105900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-121200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-213600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-154300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-91800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>19400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-90000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-514000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>431000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-504800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>116500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-516800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>873200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>175900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>450900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>90200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>252600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-306600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-20000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>27300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44378</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44287</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44105</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44014</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43923</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43734</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43552</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43370</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43279</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43188</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43006</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42915</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42824</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1070100</v>
+      </c>
+      <c r="E8" s="3">
         <v>980000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1002100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>876600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>806300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>644600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1077300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1959300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1919900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2016100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1967800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1835300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1813700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1836900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1736100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1714600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1748200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1826100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1694100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1570000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1033600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1012000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>956700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>904600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>914300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>905800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1087100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1757300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1647600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1723200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1658300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1534600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1543100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1547200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1511000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1424200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1486600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1855200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1421000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1333200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-53600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-9900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-55900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-28000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-108000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-261200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-9800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>202000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>272300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>292900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>309500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>270600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>289700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>225100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>290400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>261600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-29100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>273100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>236800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>12800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,56 +1141,59 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>68500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-8400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1182,19 +1201,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>9100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12100</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,11 +1226,11 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
         <v>2300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -1225,8 +1247,8 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1149100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1136600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1099800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1030000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>982700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>983200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1011600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1244800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1863600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1713800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1776600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1734800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1591700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1591200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1619300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1576600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1487700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1545900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1918200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1489700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1409100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-156600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-97700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-129200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-106100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-176900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-367000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-167500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>206100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>239500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>233000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>243600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>222500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>217600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>159500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>226900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>202300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-92100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>204400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>160900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,348 +1478,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>94800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>10700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E21" s="3">
         <v>19800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-119800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-305300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-149200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>260100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>297600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>282500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>296700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>287800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>262300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>220400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>284600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>267000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-28600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>267600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>221800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E22" s="3">
         <v>58800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-120600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-125700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-172900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-175300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-239900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-422000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-248700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>173000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>210900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>203200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>217700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>205700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>180500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>152300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>217900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>202900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-91800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>205600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>152500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>119800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-85200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-167600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-87200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-35000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>64000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>44300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-112700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-134700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-171200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-295100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-154700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-254400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-161500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>168000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>163100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>172200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>168800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>151500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>147000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-56800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>141600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>108200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-113600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-135300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-171600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-295900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-155500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-255900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-162900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>131300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>167900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>172500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>168700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>145100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>125300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>151500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>147100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-56800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>141600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>108200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2084,11 +2144,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2096,11 +2156,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>5400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2108,11 +2168,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-94800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-10700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-113600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-135300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-171600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-295900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-155500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-255900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-162900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>131300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>167900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>177900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>168700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>145100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>125300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>122800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>147100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-56800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>141600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>108200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-113600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-135300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-171600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-295900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-155500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-255900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-162900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>131300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>167900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>177900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>168700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>145100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>125300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>122800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>147100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-56800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>141600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>108200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44378</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44287</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44105</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44014</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43923</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43734</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43552</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43370</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43279</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43188</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43006</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42915</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42824</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1478600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1430600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1269300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1359300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1873300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1441300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1947100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1833600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2350500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1477300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1301400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1228400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>773600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>683400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>593000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>437900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>423300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>726600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>696900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>672200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>697700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,442 +2884,463 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>904800</v>
+      </c>
+      <c r="E43" s="3">
         <v>938600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>875000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>887700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>852800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>722400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>627600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>889500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1074700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1287600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1209400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1175800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1014500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1198300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1181000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1205900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>722200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>851700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>824300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>818600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>660500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1382600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1325700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1305400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1395800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1422300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1183300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1225900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1168700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1118800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1015200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>970700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>991600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1012600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>931000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>929500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1449900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1363200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1325700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1473000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1515300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E45" s="3">
         <v>121400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>342200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>344800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>336600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>260900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>99600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>151200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>55700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>110900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>36900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3806000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3816300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3791900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3987600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4485000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3607900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3900200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4026100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4643000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3838700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3543900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3427400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2849300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2848400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2826000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2603700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2651100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3012000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2957800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2998100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2910400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>4700</v>
       </c>
       <c r="T47" s="3">
         <v>4700</v>
       </c>
       <c r="U47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V47" s="3">
         <v>4500</v>
-      </c>
-      <c r="V47" s="3">
-        <v>4400</v>
       </c>
       <c r="W47" s="3">
         <v>4400</v>
       </c>
       <c r="X47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2470800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2494100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2530300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2527000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2574400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2191800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2226600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2320600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2249500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2212200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2235000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2167600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2123000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2102600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2105400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2105300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2018700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1991400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1986300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1991600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E49" s="3">
         <v>839800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>833900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>790900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>780500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>107900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>108400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>109100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3600</v>
       </c>
       <c r="L49" s="3">
         <v>3600</v>
@@ -3239,25 +3349,25 @@
         <v>3600</v>
       </c>
       <c r="N49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>4300</v>
       </c>
       <c r="S49" s="3">
         <v>4300</v>
       </c>
       <c r="T49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="U49" s="3">
         <v>4400</v>
@@ -3266,13 +3376,16 @@
         <v>4400</v>
       </c>
       <c r="W49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X49" s="3">
         <v>4500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>623700</v>
+      </c>
+      <c r="E52" s="3">
         <v>588900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>585000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>556400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>536500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>692700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>803200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>554800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>624700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>574700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>606300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>611100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>653300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>624100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>601300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>502400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>497400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>504400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>476000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>494300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7737300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7740800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7741100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7867800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8383900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6604400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7043300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7001100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7606000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6701600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6345100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6297700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5685900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5682100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5611800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5370300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5267800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5537200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5462500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5469200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5405200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,416 +3792,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>720300</v>
+      </c>
+      <c r="E57" s="3">
         <v>644800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>607100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>540800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>558900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>483100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>512000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>740700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1058300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1140500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1116400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1072800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>902600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>882400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>837500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>819600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>693100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>762100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>726000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>691600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>579700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E58" s="3">
         <v>47800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>40200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>340700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>335500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>352800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>52700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>128100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>26600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>26700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1106200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1157900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>876400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>907000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>809800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>677700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>575900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>640700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>652200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>687600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>660400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>651100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>648100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>904800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>888500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>851100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>896800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1146000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1085100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>883200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>937800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1850500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1531400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1488000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1709400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1496300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1440700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1434100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1760700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1865700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1810100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1756300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1582100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1812200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1854100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1701900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1621000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1936000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1837700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1601600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1544200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3742700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3546700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3552700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3525200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3532900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2659000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3050600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2978200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2984100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2132200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2113300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2214900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1864000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1869700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1858400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1112600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1119900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1060900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1060600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1063900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1060000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1669800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1918800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2096700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2161600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2284600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1277100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1282500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1132400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1099300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1086700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>953000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1005400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1001700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>883800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>944600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>982800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>725400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>780900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>752400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>818800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>872200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7289000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7316500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7181300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7175300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7527400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5432900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5774300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5545200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5844600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5085100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4876900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4977100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4448300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4566200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4657600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3797800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3466800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3778300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3651200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3484800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3476900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1781400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1902800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2017400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2153700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2326400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2623500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2780000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3036900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3201300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3146200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3027300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2871900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2713200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2548700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2392500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2260000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2422400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2310900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2186800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2243700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2113900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>448300</v>
+      </c>
+      <c r="E76" s="3">
         <v>424300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>559800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>692500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>856500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1171500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1269000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1455900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1761400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1616500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1468200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1320600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1237600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1115900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>954200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1572500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1801000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1758900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1811300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1984400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1928300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44378</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44287</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44105</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44014</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43923</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43734</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43552</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43370</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43279</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43188</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43006</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42915</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42824</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-113600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-135300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-171600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-295900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-155500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-255900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-162900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>131300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>167900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>177900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>168700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>145100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>125300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>122800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>147100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-56800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>141600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>108200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E83" s="3">
         <v>81600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>59500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="E89" s="3">
         <v>211000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-170200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-132100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-228400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-331300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>246900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>229500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>242200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>202500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>170200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>230600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>166600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-50900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>290600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>222300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>111700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>142500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-113400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-134400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-50600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-81200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-97200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-318600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-147300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-134500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-47300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-97200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,22 +6248,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1100</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H96" s="3">
         <v>-1000</v>
@@ -6040,52 +6273,55 @@
         <v>-1000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-12700</v>
       </c>
       <c r="N96" s="3">
         <v>-12700</v>
       </c>
       <c r="O96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="P96" s="3">
         <v>-12600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-11300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-12000</v>
       </c>
       <c r="V96" s="3">
         <v>-12000</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-316400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>875100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-439100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>365500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>770900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-118100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>249700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-118100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>82900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-121200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-213600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-91800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E102" s="3">
         <v>161300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-90000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-514000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>431000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-504800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>116500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-516800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>873200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>175900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>450900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>90200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>252600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-306600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-20000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>27300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,331 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44378</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44287</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44105</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44014</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43923</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43734</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43552</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43370</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43279</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43188</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43006</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42915</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42824</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1174700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1070100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>980000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1002100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>876600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>806300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>644600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1077300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1959300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1919900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2016100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1967800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1835300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1813700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1836900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1736100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1714600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1748200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1826100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1694100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1570000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1130400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1056500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1033600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1012000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>956700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>904600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>914300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>905800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1087100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1757300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1647600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1723200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1658300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1534600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1543100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1547200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1511000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1424200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1486600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1855200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1421000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1333200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E10" s="3">
         <v>13600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-53600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-9900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-55900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-28000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-108000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-261200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-9800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>202000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>272300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>292900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>309500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>270600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>289700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>225100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>290400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>261600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-29100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>273100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>236800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,59 +1161,62 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3">
         <v>6500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>40200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>68500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1204,19 +1224,22 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>9100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12100</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,11 +1252,11 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
         <v>2300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1250,8 +1273,8 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1216900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1149100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1136600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1099800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1030000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>982700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>983200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1011600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1244800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1863600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1713800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1776600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1734800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1591700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1591200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1619300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1576600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1487700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1545900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1918200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1489700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1409100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-79000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-156600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-97700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-129200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-106100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-176900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-367000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-167500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>206100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>239500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>233000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>243600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>222500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>217600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>159500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>226900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>202300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-92100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>204400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>160900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>94800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>10500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E21" s="3">
         <v>14600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-38700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-119800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-305300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-149200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>260100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>297600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>282500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>296700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>287800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>262300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>220400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>284600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>267000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-28600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>267600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>221800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E22" s="3">
         <v>64900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>61500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-136000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-120600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-125700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-172900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-175300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-239900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-422000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-248700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>173000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>210900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>203200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>217700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>205700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>180500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>152300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>217900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>202900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-91800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>205600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>152500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>119800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-85200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-167600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-87200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-35000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>64000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>44300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-119400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-112700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-134700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-171200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-295100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-154700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-254400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>168000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>163100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>172200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>168800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>124800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>151500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>147000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-56800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>141600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>108200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-120300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-113600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-135300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-171600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-295900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-155500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-255900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-162900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>131300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>167900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>172500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>168700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>125300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>151500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>147100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-56800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>141600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,11 +2208,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2159,11 +2220,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2171,11 +2232,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2189,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-94800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-10500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-120300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-113600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-135300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-171600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-295900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-155500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-255900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-162900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>131300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>167900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>163000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>177900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>168700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>125300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>122800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>147100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-56800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>141600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-120300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-113600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-135300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-171600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-295900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-155500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-255900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-162900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>131300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>167900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>163000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>177900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>168700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>125300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>122800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>147100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-56800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>141600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44378</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44287</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44105</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44014</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43923</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43734</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43552</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43370</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43279</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43188</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43006</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42915</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42824</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1151800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1478600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1430600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1269300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1359300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1873300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1441300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1947100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1833600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2350500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1477300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1301400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1228400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>773600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>683400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>593000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>437900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>423300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>726600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>696900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>672200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>697700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,463 +2977,484 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E43" s="3">
         <v>904800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>938600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>875000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>887700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>852800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>722400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>627600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>889500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1074700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1287600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1209400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1175800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1014500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1198300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1181000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1205900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>722200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>851700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>824300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>818600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>660500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1387800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1382600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1325700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1305400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1395800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1422300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1183300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1225900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1168700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1118800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1015200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>970700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>991600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1012600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>931000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>929500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1449900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1363200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1325700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1473000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1515300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E45" s="3">
         <v>40000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>121400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>342200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>344800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>336600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>260900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>99600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>151200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>110900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>36900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3806000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3816300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3791900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3987600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4485000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3607900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3900200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4026100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4643000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3838700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3543900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3427400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2849300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2848400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2826000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2603700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2651100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3012000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2957800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2998100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2910400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>4700</v>
       </c>
       <c r="U47" s="3">
         <v>4700</v>
       </c>
       <c r="V47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W47" s="3">
         <v>4500</v>
-      </c>
-      <c r="W47" s="3">
-        <v>4400</v>
       </c>
       <c r="X47" s="3">
         <v>4400</v>
       </c>
       <c r="Y47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2411500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2470800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2494100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2530300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2527000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2574400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2191800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2226600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2320600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2249500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2212200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2235000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2167600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2123000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2102600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2105400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2105300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2018700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1991400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1986300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1991600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>832200</v>
+      </c>
+      <c r="E49" s="3">
         <v>836000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>839800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>833900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>790900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>780500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>107900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>108400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>109100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3600</v>
       </c>
       <c r="M49" s="3">
         <v>3600</v>
@@ -3352,25 +3463,25 @@
         <v>3600</v>
       </c>
       <c r="O49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>4300</v>
       </c>
       <c r="T49" s="3">
         <v>4300</v>
       </c>
       <c r="U49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="V49" s="3">
         <v>4400</v>
@@ -3379,13 +3490,16 @@
         <v>4400</v>
       </c>
       <c r="X49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Y49" s="3">
         <v>4500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>632300</v>
+      </c>
+      <c r="E52" s="3">
         <v>623700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>588900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>585000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>556400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>536500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>692700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>803200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>554800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>624700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>574700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>606300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>611100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>653300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>624100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>601300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>502400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>497400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>504400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>476000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>494300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7490600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7737300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7740800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7741100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7867800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8383900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6604400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7043300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7001100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7606000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6701600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6345100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6297700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5685900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5682100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5611800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5370300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5267800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5537200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5462500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5469200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5405200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>762900</v>
+      </c>
+      <c r="E57" s="3">
         <v>720300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>644800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>607100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>540800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>483100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>740700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1058300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1140500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1116400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1072800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>902600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>882400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>837500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>819600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>693100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>762100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>726000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>691600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>579700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E58" s="3">
         <v>49500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>40200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>340700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>335500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>352800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>52700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>128100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>26800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>26700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1012900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1106200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1157900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>876400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>907000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>809800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>677700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>575900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>640700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>652200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>687600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>660400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>651100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>648100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>904800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>888500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>851100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>896800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1146000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1085100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>883200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>937800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1824900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1876000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1850500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1531400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1488000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1709400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1496300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1440700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1434100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1760700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1865700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1810100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1756300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1582100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1812200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1854100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1701900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1621000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1936000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1837700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1601600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1544200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3742700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3546700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3552700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3525200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3532900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2659000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3050600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2978200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2984100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2132200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2113300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2214900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1864000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1869700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1858400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1112600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1119900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1060900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1060600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1063900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1060000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1549500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1669800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1918800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2096700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2161600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2284600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1277100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1282500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1132400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1099300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1086700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>953000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1005400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1001700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>883800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>944600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>982800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>725400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>780900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>752400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>818800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>872200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7108900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7289000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7316500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7181300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7175300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7527400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5432900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5774300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5545200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5844600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5085100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4876900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4977100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4448300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4566200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4657600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3797800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3466800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3778300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3651200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3484800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3476900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1727500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1781400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1902800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2017400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2153700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2326400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2623500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2780000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3036900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3201300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3146200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3027300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2871900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2713200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2548700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2392500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2260000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2422400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2310900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2186800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2243700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2113900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>381700</v>
+      </c>
+      <c r="E76" s="3">
         <v>448300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>424300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>559800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>692500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>856500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1171500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1269000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1455900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1761400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1616500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1468200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1320600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1237600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1115900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>954200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1572500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1801000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1758900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1811300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1984400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1928300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44378</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44287</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44105</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44014</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43923</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43734</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43552</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43370</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43279</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43188</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43006</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42915</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42824</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-120300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-113600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-135300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-171600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-295900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-155500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-255900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-162900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>131300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>167900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>163000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>177900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>168700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>125300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>122800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>147100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-56800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>141600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E83" s="3">
         <v>85700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>81600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>68100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>59300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>55100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>59500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-76500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>211000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-170200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-132100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-53100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-228400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-331300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>246900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>229500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>242200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>170200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>230600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>166600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-50900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>290600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>222300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>111700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>142500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-113400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-134400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-50600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-47500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-81200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-97200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-318600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-147300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-134500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-50400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-47300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-97200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6258,16 +6492,16 @@
         <v>-1100</v>
       </c>
       <c r="E96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1100</v>
       </c>
       <c r="G96" s="3">
         <v>-1100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I96" s="3">
         <v>-1000</v>
@@ -6276,52 +6510,55 @@
         <v>-1000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-12700</v>
       </c>
       <c r="O96" s="3">
         <v>-12700</v>
       </c>
       <c r="P96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="Q96" s="3">
         <v>-12600</v>
       </c>
       <c r="R96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-11300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-12000</v>
       </c>
       <c r="W96" s="3">
         <v>-12000</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E100" s="3">
         <v>182300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-316400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>875100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-439100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>365500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>770900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-118100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>249700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-118100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>82900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-121200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-213600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-91800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-326800</v>
+      </c>
+      <c r="E102" s="3">
         <v>48000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>161300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-90000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-514000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>431000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-504800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>116500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-516800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>873200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>175900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>450900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>90200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>252600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-306600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>27300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44378</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44287</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44105</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44014</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43923</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43734</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43552</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43370</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43279</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43188</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43006</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42915</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42824</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1257900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1174700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1070100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>980000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1002100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>876600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>806300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>644600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1077300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1959300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1919900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2016100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1967800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1835300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1813700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1836900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1736100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1714600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1748200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1826100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1694100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1570000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1277500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1130400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1056500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1033600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1012000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>956700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>904600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>914300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>905800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1087100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1757300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1647600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1723200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1658300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1534600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1543100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1547200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1511000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1424200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1486600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1855200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1421000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1333200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E10" s="3">
         <v>44300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-53600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-9900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-55900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-28000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-108000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-261200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-9800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>202000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>272300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>292900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>309500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>270600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>289700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>225100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>290400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>261600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-29100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>273100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>236800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
         <v>12300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,62 +1181,65 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>9700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>40200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>68500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-8400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1227,19 +1247,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>9100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12100</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,11 +1278,11 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
         <v>2300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1276,8 +1299,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1362600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1216900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1149100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1136600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1099800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1030000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>982700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>983200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1011600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1244800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1863600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1713800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1776600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1734800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1591700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1591200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1619300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1576600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1487700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1545900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1918200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1489700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1409100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-79000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-156600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-97700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-129200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-106100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-176900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-367000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-167500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>206100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>239500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>233000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>243600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>222500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>217600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>159500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>226900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>202300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-92100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>204400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>160900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E20" s="3">
         <v>37700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>94800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-49000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>10700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>80700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-119800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-305300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-149200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>166500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>260100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>297600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>282500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>296700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>287800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>262300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>220400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>284600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>267000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-28600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>267600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>221800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E22" s="3">
         <v>58900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>61500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-120600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-125700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-172900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-175300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-239900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-422000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-248700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>173000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>210900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>203200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>217700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>205700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>180500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>152300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>217900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>202900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-91800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>205600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>152500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>119800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-85200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-167600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-87200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>55900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-35000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>64000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>44300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-119400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-112700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-134700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-171200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-295100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-154700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-254400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-161500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>131300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>168000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>163100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>172200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>168800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>124800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>151500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>147000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-56800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>141600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>108200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-120300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-113600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-135300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-171600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-295900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-155500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-255900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-162900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>66900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>131300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>167900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>163000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>172500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>168700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>125300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>151500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>147100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-56800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>141600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,11 +2272,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2223,11 +2284,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>5400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2235,11 +2296,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-37700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-94800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>49000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-120300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-113600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-135300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-171600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-295900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-155500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-255900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-162900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>131300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>167900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>163000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>177900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>168700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>125300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>122800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>147100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-56800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>141600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-120300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-113600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-135300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-171600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-295900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-155500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-255900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-162900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>131300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>167900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>163000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>177900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>168700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>125300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>122800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>147100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-56800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>141600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44378</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44287</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44105</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44014</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43923</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43734</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43552</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43370</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43279</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43188</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43006</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42915</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42824</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>770200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1151800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1478600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1430600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1269300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1359300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1873300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1441300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1947100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1833600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2350500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1477300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1301400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1228400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>773600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>683400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>593000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>437900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>423300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>726600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>696900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>672200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>697700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,484 +3070,505 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1029000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>904800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>938600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>875000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>887700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>852800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>722400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>627600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>889500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1074700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1287600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1209400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1175800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1014500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1198300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1181000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1205900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>722200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>851700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>824300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>818600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>660500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1345800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1387800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1382600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1325700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1305400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1395800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1422300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1183300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1225900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1168700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1118800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1015200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>970700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>991600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1012600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>931000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>929500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1449900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1363200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1325700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1473000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1515300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E45" s="3">
         <v>41400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>121400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>342200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>344800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>336600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>260900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>58600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>151200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>55700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>70500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>110900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>36900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3211600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3610000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3806000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3816300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3791900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3987600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4485000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3607900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4026100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4643000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3838700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3543900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3427400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2849300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2848400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2826000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2603700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2651100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3012000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2957800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2998100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2910400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>5900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>54100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>4700</v>
       </c>
       <c r="V47" s="3">
         <v>4700</v>
       </c>
       <c r="W47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="X47" s="3">
         <v>4500</v>
-      </c>
-      <c r="X47" s="3">
-        <v>4400</v>
       </c>
       <c r="Y47" s="3">
         <v>4400</v>
       </c>
       <c r="Z47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2343200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2411500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2470800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2494100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2530300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2527000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2574400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2191800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2226600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2320600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2249500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2212200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2235000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2167600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2123000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2102600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2105400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2105300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2018700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1991400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1986300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1991600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>828400</v>
+      </c>
+      <c r="E49" s="3">
         <v>832200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>836000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>839800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>833900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>790900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>780500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>107900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>108400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>109100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3600</v>
       </c>
       <c r="N49" s="3">
         <v>3600</v>
@@ -3466,25 +3577,25 @@
         <v>3600</v>
       </c>
       <c r="P49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>4300</v>
       </c>
       <c r="U49" s="3">
         <v>4300</v>
       </c>
       <c r="V49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="W49" s="3">
         <v>4400</v>
@@ -3493,13 +3604,16 @@
         <v>4400</v>
       </c>
       <c r="Y49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z49" s="3">
         <v>4500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>603100</v>
+      </c>
+      <c r="E52" s="3">
         <v>632300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>623700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>588900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>585000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>556400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>536500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>692700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>803200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>554800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>624700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>574700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>606300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>611100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>653300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>624100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>601300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>502400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>497400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>504400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>476000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>494300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6989300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7490600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7737300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7740800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7741100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7867800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8383900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6604400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7043300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7001100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7606000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6701600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6345100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6297700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5685900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5682100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5611800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5370300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5267800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5537200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5462500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5469200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5405200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>810700</v>
+      </c>
+      <c r="E57" s="3">
         <v>762900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>720300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>644800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>607100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>540800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>558900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>483100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>512000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>740700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1058300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1140500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1116400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1072800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>902600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>882400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>837500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>819600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>693100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>762100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>726000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>691600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>579700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E58" s="3">
         <v>49100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>340700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>335500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>352800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>52700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>128100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>27900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>26600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>26800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>26700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1021500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1012900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1106200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1157900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>876400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>907000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>809800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>677700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>575900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>640700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>652200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>687600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>660400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>651100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>648100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>904800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>888500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>851100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>896800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1146000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1085100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>883200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>937800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2179900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1824900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1876000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1850500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1531400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1488000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1709400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1496300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1440700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1434100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1760700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1865700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1810100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1756300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1582100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1812200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1854100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1701900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1621000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1936000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1837700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1601600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1544200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3424800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3734000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3742700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3546700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3552700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3525200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3532900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2659000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3050600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2978200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2984100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2132200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2113300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2214900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1864000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1869700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1858400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1112600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1119900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1060900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1060600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1063900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1060000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1158700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1549500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1669800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1918800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2096700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2161600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2284600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1277100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1282500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1132400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1099300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1086700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>953000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1005400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1001700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>883800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>944600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>982800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>725400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>780900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>752400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>818800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>872200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6763900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7108900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7289000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7316500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7181300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7175300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7527400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5432900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5774300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5545200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5844600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5085100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4876900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4977100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4448300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4566200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4657600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3797800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3466800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3778300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3651200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3484800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3476900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1604200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1727500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1781400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1902800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2017400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2153700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2326400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2623500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2780000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3036900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3201300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3146200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3027300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2871900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2713200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2548700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2392500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2260000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2422400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2310900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2186800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2243700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2113900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E76" s="3">
         <v>381700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>448300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>424300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>559800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>692500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>856500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1171500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1269000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1455900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1761400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1616500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1468200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1320600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1237600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1115900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>954200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1572500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1801000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1758900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1811300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1984400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1928300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44378</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44287</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44105</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44014</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43923</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43734</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43552</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43370</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43279</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43188</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43006</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42915</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42824</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-120300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-113600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-135300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-171600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-295900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-155500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-255900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-162900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>131300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>167900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>163000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>177900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>168700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>125300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>122800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>147100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-56800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>141600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E83" s="3">
         <v>85200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>81600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>55100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>53000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>59500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-270200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-76500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>211000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-170200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-132100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-53100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-228400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-331300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>246900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>229500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>242200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>202500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>170200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>230600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>166600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-50900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>290600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>222300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>111700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>142500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-113400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-134400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-47500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-81200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-97200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-318600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-147300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-134500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-50400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-47300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-40600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-97200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6495,16 +6729,16 @@
         <v>-1100</v>
       </c>
       <c r="F96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1100</v>
       </c>
       <c r="H96" s="3">
         <v>-1100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J96" s="3">
         <v>-1000</v>
@@ -6513,52 +6747,55 @@
         <v>-1000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-12700</v>
       </c>
       <c r="P96" s="3">
         <v>-12700</v>
       </c>
       <c r="Q96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="R96" s="3">
         <v>-12600</v>
       </c>
       <c r="S96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-11300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-12000</v>
       </c>
       <c r="X96" s="3">
         <v>-12000</v>
       </c>
       <c r="Y96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-293700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>182300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-316400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>875100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-439100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>365500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>770900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-118100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>249700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-118100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>82900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-121200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-213600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-154300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-91800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-381700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-326800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>161300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-90000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-514000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>431000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-504800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>116500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-516800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>873200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>175900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>450900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>90200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>252600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-306600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>27300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,357 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44378</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44287</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44105</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44014</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43923</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43734</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43552</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43370</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43279</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43188</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43006</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42915</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42824</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1276900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1257900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1174700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1070100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>980000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1002100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>876600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>806300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>644600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1077300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1959300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1919900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2016100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1967800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1835300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1813700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1836900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1736100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1714600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1748200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1826100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1694100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1570000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1193700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1277500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1130400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1056500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1033600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1012000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>956700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>904600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>914300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>905800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1087100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1757300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1647600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1723200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1658300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1534600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1543100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1547200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1511000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1424200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1486600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1855200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1421000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1333200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-19600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-53600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-9900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-55900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-28000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-108000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-261200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-9800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>202000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>272300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>292900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>309500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>270600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>289700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>225100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>290400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>261600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>273100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>236800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,65 +1201,68 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>9700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-8400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1250,19 +1270,22 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>9100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12100</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,11 +1304,11 @@
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <v>2300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1302,8 +1325,8 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1272400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1362600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1216900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1149100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1136600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1099800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1030000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>982700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>983200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1011600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1244800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1863600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1713800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1776600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1734800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1591700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1591200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1619300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1576600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1487700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1545900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1918200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1489700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1409100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-104700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-79000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-156600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-97700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-129200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-106100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-176900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-367000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-167500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>206100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>239500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>233000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>243600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>222500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>217600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>159500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>226900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>202300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>204400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>160900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1580,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E20" s="3">
         <v>34600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>37700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>94800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-49000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>10500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>10700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E21" s="3">
         <v>13700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>80700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-119800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-305300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-149200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>166500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>260100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>297600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>282500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>296700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>287800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>262300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>220400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>284600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>267000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-28600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>267600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>221800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E22" s="3">
         <v>55100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>64900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>61500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-125200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-63400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-136000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-120600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-125700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-172900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-175300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-239900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-422000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-248700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>173000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>210900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>203200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>217700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>205700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>180500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>152300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>217900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>202900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-91800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>205600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>152500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>119800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-85200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-167600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-87200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>66400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>55900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>64000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>44300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-127300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-121700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-119400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-112700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-134700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-171200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-295100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-154700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-254400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-161500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>168000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>163100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>172200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>168800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>124800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>151500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>147000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>141600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>108200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-122200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-120300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-113600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-135300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-171600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-295900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-155500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-255900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-162900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>66900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>167900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>163000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>172500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>168700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>145100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>125300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>151500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>147100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>141600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>108200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2275,11 +2336,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2287,11 +2348,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>5400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2299,11 +2360,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-34600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-37700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-94800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>49000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-122200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-120300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-113600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-135300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-171600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-295900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-155500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-255900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-162900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>167900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>163000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>177900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>168700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>145100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>125300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>122800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>147100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>141600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>108200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-122200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-120300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-113600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-135300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-171600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-295900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-155500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-255900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-162900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>167900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>163000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>177900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>168700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>145100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>125300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>122800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>147100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>141600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>108200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44378</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44287</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44105</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44014</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43923</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43734</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43552</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43370</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43279</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43188</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43006</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42915</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42824</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,85 +3005,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>670500</v>
+      </c>
+      <c r="E41" s="3">
         <v>770200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1151800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1478600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1430600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1269300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1359300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1873300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1441300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1947100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1833600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2350500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1477300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1301400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1228400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>773600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>683400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>593000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>437900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>423300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>726600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>696900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>672200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>697700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,505 +3163,526 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1073800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1064000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1029000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>904800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>938600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>875000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>887700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>852800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>722400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>627600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>889500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1074700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1287600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1209400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1175800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1014500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1198300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1181000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1205900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>722200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>851700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>824300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>818600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>660500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1392400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1345800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1387800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1382600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1325700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1305400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1395800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1422300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1183300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1225900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1168700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1118800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1015200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>970700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>991600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1012600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>931000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>900800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>929500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1449900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1363200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1325700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1473000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1515300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E45" s="3">
         <v>31600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>121400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>342200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>344800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>336600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>260900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>99000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>151200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>55700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>70500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>110900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>36900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3170300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3211600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3610000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3806000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3816300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3791900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3987600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4485000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3607900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4026100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4643000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3838700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3543900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3427400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2849300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2848400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2826000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2603700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2651100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3012000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2957800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2998100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2910400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>5900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>54100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55600</v>
-      </c>
-      <c r="V47" s="3">
-        <v>4700</v>
       </c>
       <c r="W47" s="3">
         <v>4700</v>
       </c>
       <c r="X47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4500</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>4400</v>
       </c>
       <c r="Z47" s="3">
         <v>4400</v>
       </c>
       <c r="AA47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AB47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2302200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2343200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2411500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2470800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2494100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2530300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2527000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2574400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2191800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2226600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2320600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2249500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2212200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2235000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2167600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2123000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2102600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2105400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2105300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2018700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1991400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1986300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1991600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>824600</v>
+      </c>
+      <c r="E49" s="3">
         <v>828400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>832200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>836000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>839800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>833900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>790900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>780500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>107900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>108400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>109100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3600</v>
       </c>
       <c r="O49" s="3">
         <v>3600</v>
@@ -3580,25 +3691,25 @@
         <v>3600</v>
       </c>
       <c r="Q49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R49" s="3">
         <v>3700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>4300</v>
       </c>
       <c r="V49" s="3">
         <v>4300</v>
       </c>
       <c r="W49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="X49" s="3">
         <v>4400</v>
@@ -3607,13 +3718,16 @@
         <v>4400</v>
       </c>
       <c r="Z49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA49" s="3">
         <v>4500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E52" s="3">
         <v>603100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>632300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>623700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>588900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>585000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>556400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>536500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>692700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>803200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>554800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>624700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>574700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>606300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>611100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>653300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>624100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>601300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>502400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>497400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>504400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>476000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>494300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6713600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6989300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7490600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7737300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7740800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7741100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7867800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8383900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6604400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7043300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7001100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7606000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6701600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6345100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6297700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5685900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5682100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5611800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5370300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5267800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5537200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5462500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5469200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5405200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4185,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E57" s="3">
         <v>810700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>762900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>720300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>644800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>607100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>540800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>558900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>483100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>512000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>740700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1058300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1140500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1116400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1072800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>902600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>882400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>837500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>819600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>693100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>762100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>726000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>691600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>579700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E58" s="3">
         <v>347700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>340700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>335500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>352800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>52700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>31400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>128100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>27900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>26600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>26800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>26700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1034100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1021500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1012900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1106200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1157900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>876400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>907000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>809800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>677700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>575900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>640700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>652200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>687600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>660400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>651100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>648100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>904800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>888500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>851100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>896800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1146000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1085100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>883200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>937800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2237500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2179900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1824900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1876000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1850500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1531400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1488000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1709400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1496300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1440700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1434100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1760700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1865700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1810100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1756300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1582100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1812200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1854100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1701900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1621000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1936000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1837700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1601600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1544200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3428000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3424800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3734000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3742700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3546700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3552700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3525200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3532900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2659000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3050600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2978200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2984100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2132200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2113300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2214900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1864000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1869700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1858400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1112600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1119900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1060900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1060600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1063900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1060000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1093700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1158700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1549500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1669800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1918800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2096700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2161600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2284600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1277100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1282500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1132400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1099300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1086700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>953000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1005400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1001700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>883800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>944600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>982800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>725400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>780900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>752400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>818800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>872200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6759700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6763900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7108900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7289000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7316500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7181300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7175300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7527400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5432900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5774300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5545200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5844600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5085100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4876900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4977100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4448300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4566200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4657600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3797800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3466800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3778300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3651200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3484800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3476900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1475700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1604200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1727500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1781400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1902800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2017400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2153700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2326400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2623500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2780000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3036900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3201300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3146200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3027300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2871900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2713200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2548700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2392500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2260000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2422400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2310900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2186800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2243700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2113900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E76" s="3">
         <v>225400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>381700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>448300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>424300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>559800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>692500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>856500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1171500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1269000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1455900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1761400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1616500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1468200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1320600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1237600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1115900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>954200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1572500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1801000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1758900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1811300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1984400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1928300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44833</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44378</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44287</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44105</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44014</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43923</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43734</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43552</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43370</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43279</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43188</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43006</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42915</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42824</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-122200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-120300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-113600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-135300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-171600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-295900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-155500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-255900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-162900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>167900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>163000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>177900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>168700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>145100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>125300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>122800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>147100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>141600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>108200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E83" s="3">
         <v>83800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>81600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>56800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>53700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>59500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-270200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-76500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-170200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-132100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-53100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-228400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-331300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>246900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>229500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>242200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>202500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>170200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>230600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>166600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-50900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>290600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>222300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>111700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>142500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-113400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-134400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-50600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-47500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-81200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-97200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-318600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-147300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-121200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-134500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-50400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-47300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-40600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-97200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,13 +6950,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E96" s="3">
         <v>-1100</v>
@@ -6732,16 +6966,16 @@
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1100</v>
       </c>
       <c r="I96" s="3">
         <v>-1100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>-1000</v>
@@ -6750,52 +6984,55 @@
         <v>-1000</v>
       </c>
       <c r="M96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q96" s="3">
         <v>-12700</v>
       </c>
       <c r="R96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="S96" s="3">
         <v>-12600</v>
       </c>
       <c r="T96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-11300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-12000</v>
       </c>
       <c r="Y96" s="3">
         <v>-12000</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-293700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>182300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-316400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>875100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-439100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>365500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>770900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-118100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>249700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-118100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>82900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-121200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-213600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-154300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-91800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-381700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-326800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>161300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-514000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>431000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-504800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>116500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-516800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>873200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>175900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>450900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>90200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>252600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-306600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>28600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>27300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44833</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44378</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44287</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44105</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44014</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43923</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43734</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43552</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43370</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43279</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43188</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43006</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42915</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42824</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1320100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1276900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1257900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1174700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1070100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>980000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1002100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>876600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>806300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>644600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1077300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1959300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1919900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2016100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1967800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1835300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1813700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1836900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1736100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1714600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1748200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1826100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1694100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1570000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1369800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1193700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1277500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1130400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1056500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1033600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1012000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>956700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>904600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>914300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>905800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1087100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1757300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1647600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1723200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1658300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1534600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1543100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1547200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1511000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1424200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1486600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1855200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1421000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1333200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E10" s="3">
         <v>83200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-19600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-53600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-55900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-28000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-108000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-261200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-9800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>202000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>272300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>292900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>309500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>270600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>289700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>225100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>290400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>261600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-29100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>273100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>236800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,68 +1220,71 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>9700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-8400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1273,19 +1292,22 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>9100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12100</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,11 +1329,11 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1328,8 +1350,8 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1458900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1272400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1362600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1216900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1149100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1136600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1099800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1030000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>982700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>983200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1011600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1244800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1863600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1713800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1776600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1734800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1591700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1591200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1619300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1576600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1487700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1545900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1918200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1489700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1409100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-138800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-104700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-156600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-97700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-129200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-106100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-176900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-367000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-167500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>206100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>239500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>233000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>243600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>222500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>217600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>159500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>226900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>202300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>204400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>160900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>34600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>94800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>10500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>10700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="E21" s="3">
         <v>46600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>80700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-119800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-305300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-149200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>166500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>260100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>297600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>282500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>296700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>287800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>262300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>220400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>284600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>267000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-28600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>267600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>221800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E22" s="3">
         <v>56800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>64900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-125200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-63400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-120600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-125700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-172900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-175300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-239900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-422000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-248700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>173000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>210900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>203200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>217700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>205700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>180500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>152300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>217900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>202900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-91800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>205600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>152500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E24" s="3">
         <v>32900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-16600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-85200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-167600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-87200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>45500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>66400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>55900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>64000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>44300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-243200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-127300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-121700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-119400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-112700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-134700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-171200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-295100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-154700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-254400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-161500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>131300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>168000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>163100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>172200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>168800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>145200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>124800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>151500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>147000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>141600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>108200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-127600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-122200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-120300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-113600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-135300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-171600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-295900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-155500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-255900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-162900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>131300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>167900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>163000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>172500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>168700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>145100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>125300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>151500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>147100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>141600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>108200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2339,11 +2399,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2351,11 +2411,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>5400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2363,11 +2423,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E32" s="3">
         <v>42100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-34600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-94800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-127600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-122200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-120300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-113600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-135300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-171600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-295900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-155500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-255900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-162900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>131300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>167900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>163000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>177900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>168700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>145100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>125300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>122800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>147100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>141600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>108200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-127600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-122200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-120300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-113600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-135300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-171600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-295900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-155500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-255900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-162900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>131300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>167900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>163000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>177900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>168700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>145100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>125300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>122800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>147100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>141600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>108200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44833</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44378</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44287</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44105</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44014</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43923</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43734</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43552</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43370</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43279</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43188</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43006</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42915</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42824</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,88 +3091,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>658600</v>
+      </c>
+      <c r="E41" s="3">
         <v>670500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>770200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1151800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1478600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1430600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1269300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1359300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1873300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1441300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1947100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1833600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2350500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1477300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1301400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1228400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>773600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>683400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>593000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>437900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>423300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>726600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>696900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>672200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>697700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3166,526 +3255,547 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>990500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1073800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1064000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1029000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>904800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>938600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>875000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>887700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>852800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>722400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>627600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>889500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1074700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1287600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1209400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1175800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1014500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1198300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1181000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1205900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>722200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>851700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>824300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>818600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>660500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1470700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1392400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1345800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1387800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1382600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1325700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1305400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1395800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1422300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1183300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1225900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1168700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1118800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1015200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>970700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>991600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1012600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>931000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>929500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1449900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1363200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1325700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1473000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1515300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E45" s="3">
         <v>33600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>121400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>342200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>344800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>336600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>260900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>99000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>151200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>55700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>70500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>110900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>34300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>36900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3158300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3170300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3211600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3610000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3806000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3816300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3791900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3987600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4485000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3607900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4026100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4643000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3838700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3543900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3427400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2849300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2848400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2826000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2603700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2651100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3012000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2957800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2998100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2910400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>5900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>54100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55600</v>
-      </c>
-      <c r="W47" s="3">
-        <v>4700</v>
       </c>
       <c r="X47" s="3">
         <v>4700</v>
       </c>
       <c r="Y47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4500</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>4400</v>
       </c>
       <c r="AA47" s="3">
         <v>4400</v>
       </c>
       <c r="AB47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AC47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2302200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2343200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2411500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2470800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2494100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2530300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2527000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2574400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2191800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2226600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2320600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2249500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2212200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2235000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2167600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2123000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2102600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2105400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2105300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2018700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1991400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1986300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1991600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>841900</v>
+      </c>
+      <c r="E49" s="3">
         <v>824600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>828400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>832200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>836000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>839800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>833900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>790900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>780500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>107900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>108400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>3600</v>
       </c>
       <c r="P49" s="3">
         <v>3600</v>
@@ -3694,25 +3804,25 @@
         <v>3600</v>
       </c>
       <c r="R49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S49" s="3">
         <v>3700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>4300</v>
       </c>
       <c r="W49" s="3">
         <v>4300</v>
       </c>
       <c r="X49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Y49" s="3">
         <v>4400</v>
@@ -3721,13 +3831,16 @@
         <v>4400</v>
       </c>
       <c r="AA49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AB49" s="3">
         <v>4500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>363500</v>
+      </c>
+      <c r="E52" s="3">
         <v>409900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>603100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>632300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>623700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>588900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>585000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>556400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>536500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>692700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>803200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>554800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>624700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>574700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>606300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>611100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>653300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>624100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>601300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>502400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>497400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>504400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>476000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>494300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6666200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6713600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6989300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7490600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7737300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7740800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7741100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7867800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8383900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6604400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7043300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7001100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7606000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6701600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6345100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6297700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5685900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5682100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5611800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5370300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5267800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5537200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5462500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5469200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5405200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E57" s="3">
         <v>848000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>810700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>762900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>720300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>644800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>607100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>540800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>558900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>483100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>512000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>740700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1058300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1140500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1116400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1072800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>902600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>882400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>837500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>819600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>693100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>762100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>726000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>691600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>579700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E58" s="3">
         <v>355400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>347700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>49500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>40200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>340700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>335500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>352800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>31400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>128100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>27900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>26600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>26800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>26700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1034100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1021500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1012900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1106200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1157900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>876400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>907000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>809800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>677700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>575900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>640700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>652200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>687600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>660400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>651100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>648100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>904800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>888500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>851100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>896800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1146000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1085100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>883200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>937800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1952500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2237500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2179900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1824900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1876000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1850500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1531400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1488000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1709400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1496300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1440700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1434100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1760700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1865700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1810100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1756300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1582100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1812200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1854100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1701900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1621000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1936000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1837700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1601600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1544200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3814900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3428000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3424800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3734000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3742700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3546700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3552700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3525200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3532900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2659000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3050600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2978200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2984100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2132200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2113300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2214900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1864000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1869700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1858400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1112600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1119900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1060900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1060600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1063900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1060000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1142600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1093700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1158700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1549500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1669800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1918800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2096700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2161600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2284600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1277100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1282500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1132400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1099300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1086700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>953000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1005400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1001700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>883800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>944600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>982800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>725400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>780900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>752400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>818800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>872200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6913700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6759700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6763900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7108900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7289000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7316500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7181300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7175300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7527400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5432900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5774300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5545200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5844600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5085100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4876900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4977100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4448300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4566200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4657600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3797800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3466800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3778300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3651200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3484800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3476900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1475700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1604200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1727500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1781400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1902800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2017400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2153700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2326400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2623500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2780000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3036900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3201300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3146200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3027300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2871900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2713200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2548700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2392500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2260000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2422400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2310900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2186800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2243700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2113900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-247500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-46100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>381700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>448300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>424300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>559800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>692500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>856500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1171500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1269000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1455900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1761400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1616500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1468200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1320600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1237600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1115900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>954200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1572500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1801000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1758900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1811300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1984400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1928300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44833</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44378</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44287</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44105</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44014</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43923</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43734</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43552</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43370</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43279</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43188</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43006</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42915</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42824</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-243100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-127600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-122200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-120300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-113600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-135300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-171600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-295900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-155500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-255900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-162900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>131300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>167900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>163000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>177900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>168700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>145100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>125300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>122800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>147100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>141600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>108200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E83" s="3">
         <v>84200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>85700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>81600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>60500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>59300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>56800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>55100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>53000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>59500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-270200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-76500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>211000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-170200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-132100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-53100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-228400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-331300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>246900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>229500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>242200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>202500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>170200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>230600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>166600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-50900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>290600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>222300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>111700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>142500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-113400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-134400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-47500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-81200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-97200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-318600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-147300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-121200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-99700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-48000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-134500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-47300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-40600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-97200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6960,7 +7193,7 @@
         <v>-1000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
@@ -6969,16 +7202,16 @@
         <v>-1100</v>
       </c>
       <c r="H96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1100</v>
       </c>
       <c r="J96" s="3">
         <v>-1100</v>
       </c>
       <c r="K96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="L96" s="3">
         <v>-1000</v>
@@ -6987,52 +7220,55 @@
         <v>-1000</v>
       </c>
       <c r="N96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-12700</v>
       </c>
       <c r="R96" s="3">
         <v>-12700</v>
       </c>
       <c r="S96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="T96" s="3">
         <v>-12600</v>
       </c>
       <c r="U96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-11300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-12000</v>
       </c>
       <c r="Z96" s="3">
         <v>-12000</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-293700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-316400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>875100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-439100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>365500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>770900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-118100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>249700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-118100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>82900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-105900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-121200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-213600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-154300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-91800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-99700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-381700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-326800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>161300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-514000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>431000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-504800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>116500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-516800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>873200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>175900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>450900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>90200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>252600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-306600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>28600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>27300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44833</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44378</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44287</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44105</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44014</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43923</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43552</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43370</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43279</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43188</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43006</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42915</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42824</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1431400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1320100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1276900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1257900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1174700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1070100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>980000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1002100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>876600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>806300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>644600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1077300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1959300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1919900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2016100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1967800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1835300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1813700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1836900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1736100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1714600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1748200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1826100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1694100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1570000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1432200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1369800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1193700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1277500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1130400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1056500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1033600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1012000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>956700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>904600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>914300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>905800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1087100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1757300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1647600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1723200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1658300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1534600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1543100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1547200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1511000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1424200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1486600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1855200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1421000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1333200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-49700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-19600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-53600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-9900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-55900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-28000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-108000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-261200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-9800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>202000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>272300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>292900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>309500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>270600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>289700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>225100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>290400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>261600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-29100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>273100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>236800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E12" s="3">
         <v>13900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>7900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,71 +1240,74 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>9700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>68500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-8400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1295,19 +1315,22 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>9100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>10800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12100</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1332,11 +1355,11 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <v>2300</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
@@ -1353,8 +1376,8 @@
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1526500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1458900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1272400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1362600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1216900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1149100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1136600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1099800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1030000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>982700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>983200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1011600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1244800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1863600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1713800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1776600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1734800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1591700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1591200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1619300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1576600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1487700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1545900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1918200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1489700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1409100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-95100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-138800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-104700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-156600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-97700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-129200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-106100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-176900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-367000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-167500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>206100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>239500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>233000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>243600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>222500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>217600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>159500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>226900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>202300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-92100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>204400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>160900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,423 +1647,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-44300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>94800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-49000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>10500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>10700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-99200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>80700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-119800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-305300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-149200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>166500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>260100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>297600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>282500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>296700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>287800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>262300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>220400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>284600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>267000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-28600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>267600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>221800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E22" s="3">
         <v>73300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-284900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-256400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-125200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-136000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-120600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-125700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-172900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-175300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-239900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-422000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-248700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>76000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>173000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>210900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>203200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>217700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>205700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>180500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>152300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>217900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>202900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-91800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>205600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>152500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-85200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-167600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-87200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>45500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>66400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>55900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>64000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>44300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-280600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-243200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-127300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-121700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-119400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-112700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-134700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-171200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-295100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-154700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-254400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-161500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>131300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>168000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>163100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>172200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>168800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>145200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>124800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>151500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>147000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>141600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>108200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-243100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-127600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-122200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-120300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-113600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-135300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-171600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-295900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-155500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-255900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-162900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>131300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>167900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>163000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>172500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>168700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>145100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>125300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>151500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>147100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>141600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>108200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,31 +2419,34 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2402,11 +2463,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2414,11 +2475,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>5400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2426,11 +2487,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E32" s="3">
         <v>44300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-94800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>49000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-243100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-127600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-122200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-120300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-113600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-135300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-171600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-295900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-155500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-255900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-162900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>131300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>167900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>163000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>177900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>168700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>145100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>125300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>122800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>147100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>141600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>108200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-243100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-127600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-122200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-120300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-113600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-135300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-171600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-295900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-155500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-255900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-162900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>131300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>167900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>163000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>177900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>168700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>145100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>125300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>122800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>147100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>141600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>108200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44833</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44378</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44287</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44105</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44014</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43923</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43552</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43370</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43279</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43188</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43006</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42915</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42824</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,91 +3178,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>567800</v>
+      </c>
+      <c r="E41" s="3">
         <v>658600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>670500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>770200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1151800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1478600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1430600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1269300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1359300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1873300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1441300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1947100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1833600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2350500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1477300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1301400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1228400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>773600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>683400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>593000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>437900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>423300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>726600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>696900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>672200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>697700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3258,547 +3348,568 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1113700</v>
+      </c>
+      <c r="E43" s="3">
         <v>990500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1073800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1064000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1029000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>904800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>938600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>875000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>887700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>852800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>722400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>627600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>889500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1074700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1287600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1209400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1175800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1014500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1198300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1181000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1205900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>722200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>851700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>824300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>818600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>660500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1549100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1470700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1392400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1345800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1387800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1382600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1325700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1305400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1395800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1422300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1183300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1225900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1168700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1118800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1015200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>970700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>991600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1012600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>931000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>900800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>929500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1449900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1363200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1325700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1473000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1515300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E45" s="3">
         <v>38500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>121400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>342200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>344800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>336600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>260900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>99600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>134300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>151200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>55700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>70500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>110900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>34300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>36900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3287500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3158300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3170300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3211600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3610000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3806000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3816300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3791900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3987600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4485000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3607900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4026100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4643000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3838700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3543900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3427400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2849300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2848400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2826000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2603700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2651100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3012000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2957800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2998100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2910400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>5900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>54100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55600</v>
-      </c>
-      <c r="X47" s="3">
-        <v>4700</v>
       </c>
       <c r="Y47" s="3">
         <v>4700</v>
       </c>
       <c r="Z47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4500</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>4400</v>
       </c>
       <c r="AB47" s="3">
         <v>4400</v>
       </c>
       <c r="AC47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2253600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2302200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2343200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2411500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2470800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2494100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2530300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2527000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2574400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2191800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2226600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2320600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2249500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2212200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2235000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2167600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2123000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2102600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2105400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2105300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2018700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1991400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1986300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1991600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>838800</v>
+      </c>
+      <c r="E49" s="3">
         <v>841900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>824600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>828400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>832200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>836000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>839800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>833900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>790900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>780500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>107900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>108400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>109100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>3600</v>
       </c>
       <c r="Q49" s="3">
         <v>3600</v>
@@ -3807,25 +3918,25 @@
         <v>3600</v>
       </c>
       <c r="S49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T49" s="3">
         <v>3700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>4300</v>
       </c>
       <c r="X49" s="3">
         <v>4300</v>
       </c>
       <c r="Y49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="Z49" s="3">
         <v>4400</v>
@@ -3834,13 +3945,16 @@
         <v>4400</v>
       </c>
       <c r="AB49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AC49" s="3">
         <v>4500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E52" s="3">
         <v>363500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>409900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>603100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>632300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>623700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>588900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>585000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>556400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>536500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>692700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>803200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>554800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>624700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>574700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>606300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>611100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>653300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>624100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>601300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>502400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>497400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>504400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>476000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>494300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6574700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6666200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6713600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6989300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7490600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7737300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7740800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7741100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7867800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8383900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6604400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7043300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7001100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7606000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6701600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6345100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6297700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5685900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5682100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5611800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5370300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5267800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5537200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5462500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5469200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5405200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>948200</v>
+      </c>
+      <c r="E57" s="3">
         <v>919800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>848000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>810700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>762900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>720300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>644800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>607100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>540800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>558900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>483100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>512000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>740700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1058300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1140500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1116400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1072800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>902600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>882400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>837500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>819600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>693100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>762100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>726000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>691600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>579700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E58" s="3">
         <v>53700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>355400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>347700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>49100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>49500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>340700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>335500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>352800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>31400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>128100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>31200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>27900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>26600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>26800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>26700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1092200</v>
+      </c>
+      <c r="E59" s="3">
         <v>979000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1034100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1021500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1012900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1106200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1157900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>876400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>907000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>809800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>677700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>575900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>640700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>652200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>687600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>660400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>651100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>648100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>904800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>888500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>851100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>896800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1146000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1085100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>883200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>937800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2095500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1952500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2237500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2179900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1824900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1876000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1850500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1531400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1488000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1709400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1496300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1440700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1434100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1760700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1865700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1810100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1756300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1582100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1812200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1854100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1701900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1621000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1936000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1837700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1601600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1544200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3815800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3814900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3428000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3424800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3734000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3742700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3546700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3552700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3525200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3532900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2659000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3050600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2978200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2984100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2132200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2113300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2214900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1864000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1869700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1858400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1112600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1119900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1060900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1060600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1063900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1060000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1142600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1093700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1158700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1549500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1669800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1918800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2096700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2161600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2284600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1277100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1282500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1132400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1099300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1086700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>953000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1005400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1001700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>883800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>944600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>982800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>725400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>780900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>752400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>818800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>872200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7022900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6913700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6759700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6763900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7108900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7289000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7316500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7181300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7175300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7527400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5432900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5774300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5545200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5844600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5085100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4876900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4977100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4448300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4566200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4657600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3797800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3466800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3778300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3651200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3484800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3476900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>951300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1232500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1475700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1604200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1727500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1781400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1902800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2017400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2153700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2326400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2623500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2780000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3036900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3201300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3146200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3027300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2871900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2713200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2548700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2392500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2260000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2422400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2310900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2186800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2243700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2113900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-448200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-247500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-46100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>381700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>448300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>424300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>559800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>692500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>856500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1171500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1269000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1455900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1761400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1616500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1468200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1320600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1237600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1115900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>954200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1572500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1801000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1758900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1811300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1984400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1928300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45015</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44833</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44378</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44287</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44105</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44014</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43923</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43552</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43370</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43279</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43188</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43006</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42915</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42824</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-243100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-127600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-122200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-120300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-113600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-135300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-171600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-295900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-155500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-255900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-162900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>131300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>167900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>163000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>177900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>168700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>145100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>125300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>122800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>147100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>141600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>108200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E83" s="3">
         <v>83900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>85200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>85700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>81600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>68100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>64700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>59300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>56800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>55100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>53700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>53000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>59500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-270200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-76500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>211000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-170200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-132100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-53100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-228400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-331300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>246900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>229500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>242200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>202500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>170200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>230600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>166600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-50900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>290600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>222300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>111700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>142500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-113400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-134400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-47500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-81200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-97200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-66700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-318600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-147300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-50400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-47300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-40600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-97200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,19 +7417,20 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-1000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G96" s="3">
         <v>-1100</v>
@@ -7205,16 +7439,16 @@
         <v>-1100</v>
       </c>
       <c r="I96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>-1100</v>
       </c>
       <c r="L96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="M96" s="3">
         <v>-1000</v>
@@ -7223,52 +7457,55 @@
         <v>-1000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-12700</v>
       </c>
       <c r="S96" s="3">
         <v>-12700</v>
       </c>
       <c r="T96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="U96" s="3">
         <v>-12600</v>
       </c>
       <c r="V96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-11300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-12000</v>
       </c>
       <c r="AA96" s="3">
         <v>-12000</v>
       </c>
       <c r="AB96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E100" s="3">
         <v>73500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-293700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>182300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-316400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>875100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-439100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>365500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>770900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-118100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>249700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-118100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>82900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-105900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-121200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-213600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-154300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-91800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>8600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-99700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-381700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-326800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>161300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-514000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>431000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-504800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>116500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-516800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>873200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>175900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>73100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>450900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>90200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>252600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-306600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>28600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>23600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>27300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,395 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E7" s="2">
         <v>45015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44378</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44287</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44105</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44014</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43923</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43552</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43370</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43279</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43188</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43006</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42915</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42824</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1364700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1431400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1320100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1276900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1257900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1174700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1070100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>980000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1002100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>876600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>806300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>644600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1077300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1959300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1919900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2016100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1967800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1835300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1813700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1836900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1736100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1714600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1748200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1826100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1694100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1570000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1395500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1432200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1369800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1193700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1277500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1130400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1056500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1033600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1012000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>956700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>904600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>914300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>905800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1087100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1757300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1647600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1723200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1658300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1534600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1543100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1547200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1511000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1424200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1486600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1855200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1421000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1333200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-49700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>83200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-19600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-53600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-9900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-55900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-28000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-108000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-261200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>202000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>272300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>292900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>309500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>270600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>289700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>225100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>290400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>261600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-29100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>273100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>236800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1084,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
         <v>10600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>7900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,74 +1260,77 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>6300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>9700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>68500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-8400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1318,19 +1338,22 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>9100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>10800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12100</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,11 +1381,11 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
         <v>2300</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1379,8 +1402,8 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1415,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1485100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1526500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1458900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1272400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1362600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1216900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1149100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1136600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1099800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1030000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>982700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>983200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1011600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1244800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1863600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1713800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1776600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1734800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1591700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1591200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1619300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1576600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1487700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1545900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1918200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1489700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1409100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-95100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-138800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-104700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-79000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-156600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-97700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-129200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-106100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-176900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-367000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-167500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>206100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>239500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>233000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>243600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>222500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>217600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>159500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>226900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>202300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>204400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>160900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,438 +1681,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-117400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-44300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>37700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>94800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>11000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>10500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>10700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-132600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-99200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>80700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-32800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-38700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-119800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-305300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-149200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>166500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>260100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>297600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>282500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>296700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>287800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>262300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>220400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>284600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>267000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-28600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>267600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>221800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E22" s="3">
         <v>72400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>73300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>55100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-284900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-256400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-94400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-125200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-63400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-136000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-120600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-125700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-172900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-175300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-239900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-422000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-248700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>76000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>173000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>210900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>203200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>217700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>205700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>180500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>152300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>217900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>202900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-91800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>205600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>152500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-85200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-167600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>45500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>66400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>55900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-35000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>64000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>44300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-206900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-280600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-243200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-127300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-121700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-119400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-112700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-134700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-171200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-295100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-154700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-254400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>131300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>168000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>163100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>172200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>168800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>145200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>124800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>151500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>147000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>141600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>108200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-281200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-243100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-127600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-122200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-120300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-113600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-135300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-171600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-295900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-155500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-255900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>131300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>167900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>163000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>172500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>168700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>145100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>125300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>151500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>147100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>141600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>108200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2448,8 +2509,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2466,11 +2527,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2478,11 +2539,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>5400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2490,11 +2551,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>117400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>44300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-37700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-94800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>49000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-281200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-243100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-127600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-122200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-120300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-113600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-135300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-171600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-295900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-155500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-255900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>131300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>167900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>163000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>177900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>168700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>145100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>125300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>122800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>147100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>141600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>108200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-281200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-243100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-127600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-122200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-120300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-113600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-135300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-171600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-295900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-155500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-255900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>131300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>167900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>163000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>177900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>168700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>145100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>125300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>122800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>147100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>141600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>108200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E38" s="2">
         <v>45015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44833</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44378</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44287</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44105</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44014</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43923</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43552</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43370</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43279</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43188</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43006</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42915</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42824</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>525700</v>
+      </c>
+      <c r="E41" s="3">
         <v>567800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>658600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>670500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>770200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1151800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1478600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1430600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1269300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1359300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1873300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1441300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1947100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1833600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2350500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1477300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1301400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1228400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>773600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>683400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>593000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>437900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>423300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>726600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>696900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>672200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>697700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3351,568 +3441,589 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1080300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1113700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>990500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1073800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1064000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1029000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>904800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>938600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>875000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>887700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>852800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>722400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>627600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>889500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1074700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1287600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1209400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1175800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1014500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1198300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1181000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1205900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>722200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>851700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>824300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>818600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>660500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1636300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1549100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1470700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1392400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1345800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1387800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1382600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1325700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1305400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1395800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1422300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1183300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1225900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1168700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1118800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1015200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>970700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>991600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1012600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>931000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>900800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>929500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1449900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1363200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1325700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1473000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1515300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E45" s="3">
         <v>56900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>121400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>342200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>344800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>336600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>260900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>99600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>134300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>99000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>151200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>55700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>70500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>110900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>34300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>36900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3291300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3287500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3158300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3170300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3211600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3610000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3806000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3816300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3791900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3987600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4485000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3607900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4026100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4643000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3838700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3543900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3427400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2849300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2848400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2826000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2603700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2651100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3012000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2957800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2998100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2910400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E47" s="3">
         <v>11100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>5900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>54100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>53500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>55600</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>4700</v>
       </c>
       <c r="Z47" s="3">
         <v>4700</v>
       </c>
       <c r="AA47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AB47" s="3">
         <v>4500</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>4400</v>
       </c>
       <c r="AC47" s="3">
         <v>4400</v>
       </c>
       <c r="AD47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2215300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2253600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2302200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2343200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2411500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2470800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2494100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2530300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2527000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2574400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2191800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2226600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2320600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2249500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2212200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2235000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2167600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2123000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2102600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2105400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2105300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2018700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1991400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1986300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1991600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E49" s="3">
         <v>838800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>841900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>824600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>828400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>832200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>836000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>839800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>833900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>790900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>780500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>107900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>108400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>109100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3600</v>
       </c>
       <c r="R49" s="3">
         <v>3600</v>
@@ -3921,25 +4032,25 @@
         <v>3600</v>
       </c>
       <c r="T49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U49" s="3">
         <v>3700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>4300</v>
       </c>
       <c r="Y49" s="3">
         <v>4300</v>
       </c>
       <c r="Z49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="AA49" s="3">
         <v>4400</v>
@@ -3948,13 +4059,16 @@
         <v>4400</v>
       </c>
       <c r="AC49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD49" s="3">
         <v>4500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E52" s="3">
         <v>183700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>363500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>409900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>603100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>632300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>623700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>588900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>585000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>556400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>536500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>692700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>803200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>554800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>624700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>574700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>606300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>611100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>653300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>624100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>601300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>502400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>497400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>504400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>476000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>494300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6545200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6574700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6666200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6713600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6989300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7490600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7737300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7740800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7741100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7867800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8383900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6604400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7043300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7001100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7606000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6701600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6345100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6297700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5685900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5682100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5611800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5370300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5267800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5537200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5462500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5469200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5405200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>974400</v>
+      </c>
+      <c r="E57" s="3">
         <v>948200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>919800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>848000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>810700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>762900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>720300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>644800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>607100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>540800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>558900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>483100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>512000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>740700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1058300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1140500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1116400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1072800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>902600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>882400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>837500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>819600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>693100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>762100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>726000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>691600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>579700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E58" s="3">
         <v>55100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>355400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>347700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>49100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>340700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>335500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>352800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>33300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>31400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>25000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>128100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>31200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>31100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>27900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>26600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>26800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>26700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1155400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1092200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>979000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1034100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1021500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1012900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1106200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1157900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>876400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>907000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>809800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>677700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>575900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>640700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>652200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>687600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>660400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>651100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>648100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>904800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>888500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>851100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>896800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1146000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1085100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>883200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>937800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2185800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2095500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1952500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2237500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2179900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1824900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1876000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1850500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1531400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1488000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1709400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1496300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1440700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1434100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1760700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1865700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1810100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1756300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1582100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1812200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1854100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1701900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1621000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1936000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1837700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1601600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1544200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3814900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3815800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3814900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3428000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3424800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3734000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3742700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3546700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3552700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3525200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3532900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2659000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3050600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2978200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2984100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2132200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2113300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2214900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1864000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1869700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1858400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1112600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1119900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1060900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1060600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1063900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1060000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1173400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1108000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1142600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1093700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1158700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1549500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1669800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1918800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2096700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2161600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2284600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1277100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1282500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1132400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1099300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1086700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>953000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1005400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1001700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>883800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>944600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>982800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>725400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>780900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>752400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>818800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>872200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7177600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7022900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6913700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6759700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6763900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7108900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7289000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7316500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7181300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7175300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7527400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5432900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5774300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5545200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5844600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5085100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4876900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4977100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4448300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4566200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4657600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3797800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3466800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3778300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3651200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3484800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3476900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E72" s="3">
         <v>951300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1232500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1475700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1604200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1727500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1781400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1902800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2017400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2153700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2326400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2623500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2780000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3036900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3201300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3146200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3027300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2871900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2713200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2548700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2392500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2260000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2422400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2310900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2186800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2243700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2113900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-632400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-448200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-247500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-46100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>381700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>448300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>424300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>559800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>692500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>856500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1171500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1269000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1455900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1761400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1616500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1468200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1320600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1237600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1115900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>954200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1572500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1801000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1758900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1811300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1984400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1928300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45106</v>
+      </c>
+      <c r="E80" s="2">
         <v>45015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44833</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44378</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44287</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44105</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44014</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43923</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43552</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43370</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43279</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43188</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43006</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42915</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42824</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-206300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-281200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-243100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-127600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-122200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-120300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-113600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-135300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-171600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-295900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-155500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-255900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>131300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>167900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>163000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>177900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>168700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>145100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>125300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>122800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>147100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>141600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>108200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E83" s="3">
         <v>79900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>85200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>81600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>68100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>64700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>59300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>56800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>55100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>53700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>59500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-61500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-270200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-76500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>211000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-170200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-132100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-53100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-228400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-331300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>246900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>229500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>242200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>202500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>170200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>230600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>166600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-50900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>290600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>222300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>111700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>142500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-113400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-61200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-48200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-134400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-50600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-47500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-81200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-97200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-318600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-147300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-121200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-37100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-59000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-61100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-134500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-50400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-47300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-40600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-97200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7427,13 +7661,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H96" s="3">
         <v>-1100</v>
@@ -7442,16 +7676,16 @@
         <v>-1100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1100</v>
       </c>
       <c r="L96" s="3">
         <v>-1100</v>
       </c>
       <c r="M96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="N96" s="3">
         <v>-1000</v>
@@ -7460,52 +7694,55 @@
         <v>-1000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-12700</v>
       </c>
       <c r="T96" s="3">
         <v>-12700</v>
       </c>
       <c r="U96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="V96" s="3">
         <v>-12600</v>
       </c>
       <c r="W96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-11300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-12000</v>
       </c>
       <c r="AB96" s="3">
         <v>-12000</v>
       </c>
       <c r="AC96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-293700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>182300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-316400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>875100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-439100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>365500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>770900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-118100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>249700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-118100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>82900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-121200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-213600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-154300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-91800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-99700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-381700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-326800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>161300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-514000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>431000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-504800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>116500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-516800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>873200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>175900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>450900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>90200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>252600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-306600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>28600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>23600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-20000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>27300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-130100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E7" s="2">
         <v>45106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44833</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44378</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44287</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44105</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44014</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43923</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43552</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43370</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43279</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43188</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43006</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42915</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42824</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1438900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1364700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1431400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1320100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1276900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1257900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1174700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1070100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>980000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1002100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>876600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>806300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>644600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1077300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1959300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1919900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2016100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1967800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1835300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1813700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1836900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1736100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1714600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1748200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1826100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1694100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1570000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1711400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1492500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1395500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1432200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1369800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1193700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1277500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1130400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1056500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1033600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1012000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>956700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>904600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>914300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>905800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1087100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1757300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1647600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1723200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1658300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1534600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1543100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1547200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1511000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1424200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1486600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1855200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1421000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1333200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1439400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-30800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-49700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>83200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-19600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-53600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-55900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-28000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-108000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-261200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-9800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>202000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>272300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>292900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>309500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>270600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>289700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>225100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>290400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>261600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-29100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>273100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>236800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>272000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,97 +1098,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>5000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>7900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,77 +1280,80 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>9700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>68500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-8400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1341,19 +1361,22 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>9100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>10800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>12100</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,11 +1407,11 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
         <v>2300</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1405,8 +1428,8 @@
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1572600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1485100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1526500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1458900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1272400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1362600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1216900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1149100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1136600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1099800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1030000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>982700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>983200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1011600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1244800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1863600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1713800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1776600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1734800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1591700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1591200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1619300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1576600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1487700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1545900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1918200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1489700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1409100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-120400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-95100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-138800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-104700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-79000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-156600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-97700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-129200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-106100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-176900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-367000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-167500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>206100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>239500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>233000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>243600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>222500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>217600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>159500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>226900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>202300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>204400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>160900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,453 +1715,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-117400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-44300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>37700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>94800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-49000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>11000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>10500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>10700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-52500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-132600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-99200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>80700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-38700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-119800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-305300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-149200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>166500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>260100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>297600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>282500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>296700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>287800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>262300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>220400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>284600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>267000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-28600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>267600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>221800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>264400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E22" s="3">
         <v>73600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>72400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>73300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>55100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>64900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>24800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9800</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-203900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-284900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-256400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-94400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-125200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-63400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-136000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-120600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-125700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-172900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-175300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-239900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-422000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-248700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>173000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>210900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>203200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>217700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>205700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>180500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>152300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>217900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>202900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-91800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>205600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>152500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>201900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>119800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-85200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-87200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>45500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>35300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>66400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>55900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-35000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>64000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>44300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-206900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-280600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-243200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-127300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-121700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-119400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-112700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-134700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-171200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-295100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-154700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-254400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-161500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>131300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>168000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>163100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>172200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>168800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>145200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>124800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>151500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>147000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>141600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>108200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-206300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-281200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-243100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-127600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-122200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-120300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-113600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-135300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-171600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-295900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-155500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-255900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-162900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>131300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>167900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>163000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>172500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>168700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>145100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>125300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>151500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>147100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>141600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>108200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2573,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2530,11 +2591,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2542,11 +2603,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>5400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2554,11 +2615,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-28700</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2817,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>9900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>117400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>44300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-37700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-94800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>49000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-206300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-281200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-243100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-127600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-122200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-120300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-113600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-135300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-171600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-295900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-155500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-255900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-162900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>67300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>131300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>167900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>163000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>177900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>168700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>145100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>125300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>122800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>147100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>141600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>108200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-206300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-281200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-243100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-127600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-122200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-120300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-113600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-135300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-171600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-295900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-155500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-255900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-162900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>67300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>131300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>167900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>163000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>177900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>168700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>145100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>125300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>122800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>147100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>141600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>108200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E38" s="2">
         <v>45106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44833</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44378</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44287</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44105</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44014</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43923</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43552</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43370</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43279</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43188</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43006</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42915</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42824</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,97 +3352,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>374100</v>
+      </c>
+      <c r="E41" s="3">
         <v>525700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>567800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>658600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>670500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>770200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1151800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1478600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1430600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1269300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1359300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1873300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1441300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1947100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1833600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2350500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1477300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1301400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1228400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>773600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>683400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>593000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>437900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>423300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>726600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>696900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>672200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>697700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>670400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3444,589 +3534,610 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1206300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1080300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1113700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>990500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1073800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1064000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1029000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>904800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>938600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>875000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>887700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>852800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>722400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>627600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>889500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1074700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1287600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1209400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1175800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1014500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1198300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1181000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1205900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>722200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>851700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>824300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>818600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>660500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>748600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1636300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1549100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1470700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1392400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1345800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1387800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1382600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1325700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1305400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1395800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1422300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1183300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1225900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1168700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1118800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1015200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>970700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>991600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1012600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>931000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>929500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1449900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1363200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1325700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1473000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1515300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1488100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E45" s="3">
         <v>49000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>121400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>342200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>344800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>336600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>260900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>134300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>99000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>31600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>151200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>55700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>70500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>110900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>34300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>36900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3321200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3291300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3287500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3158300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3170300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3211600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3610000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3806000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3816300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3791900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3987600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4485000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3607900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4026100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4643000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3838700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3543900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3427400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2849300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2848400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2826000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2603700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2651100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3012000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2957800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2998100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2910400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2932200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E47" s="3">
         <v>17500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>5900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>54100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>53500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>55100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>55600</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>4700</v>
       </c>
       <c r="AA47" s="3">
         <v>4700</v>
       </c>
       <c r="AB47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AC47" s="3">
         <v>4500</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>4400</v>
       </c>
       <c r="AD47" s="3">
         <v>4400</v>
       </c>
       <c r="AE47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AF47" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2177600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2215300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2253600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2302200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2343200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2411500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2470800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2494100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2530300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2527000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2574400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2191800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2226600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2320600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2249500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2212200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2235000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2167600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2123000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2102600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2105400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2105300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2018700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1991400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1986300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1991600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1934700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>831100</v>
+      </c>
+      <c r="E49" s="3">
         <v>835000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>838800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>841900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>824600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>828400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>832200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>836000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>839800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>833900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>790900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>780500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>107900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>108400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>109100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>3600</v>
       </c>
       <c r="S49" s="3">
         <v>3600</v>
@@ -4035,25 +4146,25 @@
         <v>3600</v>
       </c>
       <c r="U49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V49" s="3">
         <v>3700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>4300</v>
       </c>
       <c r="Z49" s="3">
         <v>4300</v>
       </c>
       <c r="AA49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="AB49" s="3">
         <v>4400</v>
@@ -4062,13 +4173,16 @@
         <v>4400</v>
       </c>
       <c r="AD49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE49" s="3">
         <v>4500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E52" s="3">
         <v>186100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>183700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>363500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>409900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>603100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>632300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>623700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>588900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>585000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>556400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>536500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>692700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>803200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>554800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>624700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>574700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>606300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>611100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>653300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>624100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>601300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>502400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>497400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>504400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>476000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>494300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6538100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6545200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6574700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6666200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6713600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6989300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7490600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7737300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7740800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7741100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7867800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8383900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6604400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7043300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7001100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7606000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6701600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6345100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6297700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5685900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5682100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5611800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5370300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5267800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5537200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5462500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5469200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5405200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>5361200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,542 +4708,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1030300</v>
+      </c>
+      <c r="E57" s="3">
         <v>974400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>948200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>919800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>848000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>810700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>762900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>720300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>644800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>607100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>540800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>558900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>483100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>512000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>740700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1058300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1140500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1116400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1072800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>902600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>882400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>837500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>819600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>693100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>762100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>726000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>691600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>579700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>591800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E58" s="3">
         <v>56000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>355400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>347700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>340700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>335500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>352800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>52700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>33300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>32400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>31400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>25000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>128100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>31200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>31100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>27900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>26600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>26800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>26700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1255500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1155400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1092200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>979000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1034100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1021500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1012900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1106200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1157900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>876400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>907000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>809800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>677700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>575900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>640700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>652200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>687600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>660400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>651100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>648100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>904800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>888500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>851100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>896800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1146000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1085100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>883200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>937800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>902300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2185800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2095500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1952500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2237500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2179900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1824900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1876000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1850500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1531400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1488000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1709400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1496300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1440700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1434100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1760700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1865700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1810100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1756300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1582100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1812200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1854100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1701900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1621000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1936000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1837700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1601600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1544200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1528300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3811000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3814900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3815800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3814900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3428000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3424800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3734000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3742700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3546700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3552700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3525200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3532900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2659000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3050600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2978200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2984100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2132200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2113300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2214900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1864000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1869700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1858400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1112600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1119900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1060900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1060600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1063900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1060000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1071100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1232800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1173400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1108000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1142600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1093700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1158700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1549500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1669800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1918800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2096700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2161600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2284600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1277100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1282500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1132400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1099300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1086700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>953000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1005400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1001700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>883800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>944600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>982800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>725400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>780900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>752400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>818800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>872200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>952500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7397500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7177600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7022900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6913700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6759700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6763900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7108900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7289000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7316500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7181300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7175300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7527400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5432900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5774300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5545200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5844600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5085100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4876900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4977100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4448300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4566200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4657600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3797800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3466800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3778300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3651200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3484800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3476900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3552400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>540900</v>
+      </c>
+      <c r="E72" s="3">
         <v>745000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>951300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1232500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1475700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1604200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1727500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1781400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1902800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2017400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2153700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2326400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2623500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2780000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3036900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3201300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3146200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3027300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2871900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2713200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2548700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2392500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2260000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2422400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2310900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2186800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2243700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2113900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2017700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-859400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-632400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-448200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-247500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-46100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>381700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>448300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>424300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>559800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>692500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>856500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1171500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1455900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1761400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1616500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1468200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1320600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1237600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1115900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>954200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1572500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1801000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1758900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1811300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1984400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1928300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1808800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45197</v>
+      </c>
+      <c r="E80" s="2">
         <v>45106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44833</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44378</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44287</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44105</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44014</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43923</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43552</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43370</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43279</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43188</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43006</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42915</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42824</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-206300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-281200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-243100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-127600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-122200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-120300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-113600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-135300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-171600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-295900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-155500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-255900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-162900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>67300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>131300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>167900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>163000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>177900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>168700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>145100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>125300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>122800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>147100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>141600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>108200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>144900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E83" s="3">
         <v>77800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>85700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>81600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>68100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>64700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>63000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>60500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>59300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>57000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>56800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>55100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>53000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>52500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>59500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-182800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-270200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-76500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>211000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-170200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-132100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-53100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-228400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-331300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>246900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>229500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>242200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>202500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>170200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>230600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>166600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-50900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>290600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>222300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>111700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>142500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>265600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-113400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-61500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-61200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-134400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-50600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-47500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-81200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-97200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-52100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-318600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-147300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-121200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-37100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-59000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-134500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-50400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-47300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-40600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-97200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-51500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7664,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-1000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I96" s="3">
         <v>-1100</v>
@@ -7679,16 +7913,16 @@
         <v>-1100</v>
       </c>
       <c r="K96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1100</v>
       </c>
       <c r="M96" s="3">
         <v>-1100</v>
       </c>
       <c r="N96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>-1000</v>
@@ -7697,52 +7931,55 @@
         <v>-1000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-12600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-12400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-12700</v>
       </c>
       <c r="U96" s="3">
         <v>-12700</v>
       </c>
       <c r="V96" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="W96" s="3">
         <v>-12600</v>
       </c>
       <c r="X96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11700</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-12000</v>
       </c>
       <c r="AC96" s="3">
         <v>-12000</v>
       </c>
       <c r="AD96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>165200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-293700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>182300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-316400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>875100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-439100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>365500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-32000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>770900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-118100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>249700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-118100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>82900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-121200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-213600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-154300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-91800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-19700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-343400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-99700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-381700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-326800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>161300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-90000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-514000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>431000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-504800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>116500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-516800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>873200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>175900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>450900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>90200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>252600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-306600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>28600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>23600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>27300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-130100</v>
       </c>
     </row>
